--- a/rmfd23.xlsx
+++ b/rmfd23.xlsx
@@ -1,32 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sirigirs\Desktop\DLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892D79EA-32AA-4CF9-BF2A-1B578CBD61B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{CEE45F19-AC4C-2641-B94C-DF904CB7A233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="rdmp" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="52">
   <si>
     <t>S.NO</t>
   </si>
@@ -170,6 +181,18 @@
   </si>
   <si>
     <t>Timings</t>
+  </si>
+  <si>
+    <t>Topics</t>
+  </si>
+  <si>
+    <t>Devops Videos</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>Languages</t>
   </si>
 </sst>
 </file>
@@ -177,9 +200,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,7 +293,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -554,18 +577,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="40.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.6328125" customWidth="1"/>
-    <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.8671875" customWidth="1"/>
+    <col min="4" max="4" width="57.03515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" s="1" customFormat="1">
+    <row r="1" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
@@ -573,178 +596,193 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:4">
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:4">
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:4">
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" ht="15" thickBot="1">
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" ht="15" thickBot="1">
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="2:4" ht="15" thickBot="1">
+    <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="2:4" ht="15" thickBot="1">
+    <row r="9" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>46</v>
       </c>
@@ -759,23 +797,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71469B19-E89A-4616-8FA0-CE6021F0B95E}">
   <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.4921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.43359375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5078125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.43359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1">
+    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -801,7 +839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -812,7 +850,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -823,7 +861,7 @@
         <v>45083</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -834,7 +872,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -845,7 +883,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -856,7 +894,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -867,7 +905,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -878,7 +916,7 @@
         <v>45088</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -889,7 +927,7 @@
         <v>45089</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -900,7 +938,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -911,7 +949,7 @@
         <v>45091</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -922,7 +960,7 @@
         <v>45092</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -933,7 +971,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -944,7 +982,7 @@
         <v>45094</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -955,7 +993,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -966,7 +1004,7 @@
         <v>45096</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -977,7 +1015,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -988,7 +1026,7 @@
         <v>45098</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -999,7 +1037,7 @@
         <v>45099</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1010,7 +1048,7 @@
         <v>45100</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1021,7 +1059,7 @@
         <v>45101</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1032,7 +1070,7 @@
         <v>45102</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1043,7 +1081,7 @@
         <v>45103</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1054,7 +1092,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1065,7 +1103,7 @@
         <v>45105</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1076,7 +1114,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1087,7 +1125,7 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1098,7 +1136,7 @@
         <v>45108</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1109,7 +1147,7 @@
         <v>45109</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1120,7 +1158,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1131,7 +1169,7 @@
         <v>45111</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1142,7 +1180,7 @@
         <v>45112</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1153,7 +1191,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1164,7 +1202,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1175,7 +1213,7 @@
         <v>45115</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1186,7 +1224,7 @@
         <v>45116</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1197,7 +1235,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1208,7 +1246,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1219,7 +1257,7 @@
         <v>45119</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1230,7 +1268,7 @@
         <v>45120</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1241,7 +1279,7 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1252,7 +1290,7 @@
         <v>45122</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1263,7 +1301,7 @@
         <v>45123</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1274,7 +1312,7 @@
         <v>45124</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1285,7 +1323,7 @@
         <v>45125</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1296,7 +1334,7 @@
         <v>45126</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1307,7 +1345,7 @@
         <v>45127</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1318,7 +1356,7 @@
         <v>45128</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1329,7 +1367,7 @@
         <v>45129</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1340,7 +1378,7 @@
         <v>45130</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1351,7 +1389,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1362,7 +1400,7 @@
         <v>45132</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1373,7 +1411,7 @@
         <v>45133</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1384,7 +1422,7 @@
         <v>45134</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1395,7 +1433,7 @@
         <v>45135</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1406,7 +1444,7 @@
         <v>45136</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1417,7 +1455,7 @@
         <v>45137</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1428,7 +1466,7 @@
         <v>45138</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1439,7 +1477,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1450,7 +1488,7 @@
         <v>45140</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1461,7 +1499,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1472,7 +1510,7 @@
         <v>45142</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1483,7 +1521,7 @@
         <v>45143</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1494,7 +1532,7 @@
         <v>45144</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1505,7 +1543,7 @@
         <v>45145</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1516,7 +1554,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1527,7 +1565,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1538,7 +1576,7 @@
         <v>45148</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1549,7 +1587,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1560,7 +1598,7 @@
         <v>45150</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1571,7 +1609,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1582,7 +1620,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1593,7 +1631,7 @@
         <v>45153</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1604,7 +1642,7 @@
         <v>45154</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1615,7 +1653,7 @@
         <v>45155</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1626,7 +1664,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1637,7 +1675,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1648,7 +1686,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1659,7 +1697,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1670,7 +1708,7 @@
         <v>45160</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1681,7 +1719,7 @@
         <v>45161</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1692,7 +1730,7 @@
         <v>45162</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -1703,7 +1741,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -1714,7 +1752,7 @@
         <v>45164</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -1725,7 +1763,7 @@
         <v>45165</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -1736,7 +1774,7 @@
         <v>45166</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -1747,7 +1785,7 @@
         <v>45167</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -1758,7 +1796,7 @@
         <v>45168</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -1769,7 +1807,7 @@
         <v>45169</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -1780,7 +1818,7 @@
         <v>45170</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -1791,7 +1829,7 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -1802,7 +1840,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -1813,7 +1851,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -1824,7 +1862,7 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -1835,7 +1873,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -1846,7 +1884,7 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -1857,7 +1895,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -1868,7 +1906,7 @@
         <v>45178</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -1879,7 +1917,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -1890,7 +1928,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -1901,7 +1939,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -1912,7 +1950,7 @@
         <v>45182</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -1923,7 +1961,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -1934,7 +1972,7 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -1945,7 +1983,7 @@
         <v>45185</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -1956,7 +1994,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -1967,7 +2005,7 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -1978,7 +2016,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -1989,7 +2027,7 @@
         <v>45189</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -2000,7 +2038,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -2011,7 +2049,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -2022,7 +2060,7 @@
         <v>45192</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -2033,7 +2071,7 @@
         <v>45193</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -2044,7 +2082,7 @@
         <v>45194</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -2055,7 +2093,7 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -2066,7 +2104,7 @@
         <v>45196</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -2077,7 +2115,7 @@
         <v>45197</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -2088,7 +2126,7 @@
         <v>45198</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>

--- a/rmfd23.xlsx
+++ b/rmfd23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sirigirs\Desktop\DLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9AE775-E53B-47DA-9A3B-C08699986471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A1DABB-D9EB-478D-AE87-87774D33EA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="64">
   <si>
     <t>S.NO</t>
   </si>
@@ -203,6 +203,24 @@
   </si>
   <si>
     <t>Adhoc Timing</t>
+  </si>
+  <si>
+    <t>8:30 - 10:00</t>
+  </si>
+  <si>
+    <t>10:30 - 11:30</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>python</t>
+  </si>
+  <si>
+    <t>11-class - completed</t>
+  </si>
+  <si>
+    <t>4-setup in linux, installation pending</t>
   </si>
 </sst>
 </file>
@@ -831,7 +849,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -841,7 +859,7 @@
     <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.08984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="5" customFormat="1">
@@ -855,24 +873,26 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>47</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>47</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="7"/>
+      <c r="J1" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
@@ -934,13 +954,21 @@
       <c r="C3" s="9">
         <v>45089</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="D3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="F3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -970,13 +998,17 @@
       <c r="C4" s="9">
         <v>45090</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -1006,13 +1038,17 @@
       <c r="C5" s="9">
         <v>45091</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -1042,13 +1078,17 @@
       <c r="C6" s="9">
         <v>45092</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -1078,13 +1118,17 @@
       <c r="C7" s="12">
         <v>45093</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="E7" s="11"/>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
@@ -1184,11 +1228,11 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -1220,11 +1264,11 @@
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -1256,11 +1300,11 @@
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -1292,11 +1336,11 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -1328,11 +1372,11 @@
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
@@ -1432,11 +1476,11 @@
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -1468,11 +1512,11 @@
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -1504,11 +1548,11 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
@@ -1540,11 +1584,11 @@
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -1576,11 +1620,11 @@
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
@@ -1680,11 +1724,11 @@
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
@@ -1716,11 +1760,11 @@
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
@@ -1752,11 +1796,11 @@
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
@@ -1788,11 +1832,11 @@
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
@@ -1824,11 +1868,11 @@
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
@@ -1928,11 +1972,11 @@
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
@@ -1964,11 +2008,11 @@
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
@@ -2000,11 +2044,11 @@
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
@@ -2036,11 +2080,11 @@
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
@@ -2072,11 +2116,11 @@
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
@@ -2174,13 +2218,13 @@
       <c r="C38" s="9">
         <v>45124</v>
       </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8" t="s">
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
@@ -2210,13 +2254,13 @@
       <c r="C39" s="9">
         <v>45125</v>
       </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8" t="s">
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
@@ -2246,13 +2290,13 @@
       <c r="C40" s="9">
         <v>45126</v>
       </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8" t="s">
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
@@ -2282,13 +2326,13 @@
       <c r="C41" s="9">
         <v>45127</v>
       </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8" t="s">
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
@@ -2320,11 +2364,11 @@
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
-      <c r="F42" s="11" t="s">
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
@@ -2422,13 +2466,13 @@
       <c r="C45" s="9">
         <v>45131</v>
       </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8" t="s">
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
@@ -2458,13 +2502,13 @@
       <c r="C46" s="9">
         <v>45132</v>
       </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8" t="s">
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
@@ -2494,13 +2538,13 @@
       <c r="C47" s="9">
         <v>45133</v>
       </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8" t="s">
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
@@ -2530,13 +2574,13 @@
       <c r="C48" s="9">
         <v>45134</v>
       </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8" t="s">
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
@@ -2568,11 +2612,11 @@
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
-      <c r="F49" s="11" t="s">
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
       <c r="I49" s="11"/>
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
@@ -2670,13 +2714,13 @@
       <c r="C52" s="9">
         <v>45138</v>
       </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8" t="s">
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
@@ -2706,13 +2750,13 @@
       <c r="C53" s="9">
         <v>45139</v>
       </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8" t="s">
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
@@ -2742,13 +2786,13 @@
       <c r="C54" s="9">
         <v>45140</v>
       </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8" t="s">
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
@@ -2778,13 +2822,13 @@
       <c r="C55" s="9">
         <v>45141</v>
       </c>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8" t="s">
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
@@ -2816,11 +2860,11 @@
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
-      <c r="F56" s="11" t="s">
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
       <c r="I56" s="11"/>
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
@@ -2918,13 +2962,13 @@
       <c r="C59" s="9">
         <v>45145</v>
       </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8" t="s">
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
@@ -2954,13 +2998,13 @@
       <c r="C60" s="9">
         <v>45146</v>
       </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8" t="s">
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
@@ -2990,13 +3034,13 @@
       <c r="C61" s="9">
         <v>45147</v>
       </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8" t="s">
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
@@ -3026,13 +3070,13 @@
       <c r="C62" s="9">
         <v>45148</v>
       </c>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8" t="s">
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
@@ -3064,11 +3108,11 @@
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
-      <c r="F63" s="11" t="s">
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
       <c r="I63" s="11"/>
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
@@ -3166,13 +3210,13 @@
       <c r="C66" s="9">
         <v>45152</v>
       </c>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8" t="s">
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
@@ -3202,13 +3246,13 @@
       <c r="C67" s="9">
         <v>45153</v>
       </c>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8" t="s">
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
@@ -3238,13 +3282,13 @@
       <c r="C68" s="9">
         <v>45154</v>
       </c>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8" t="s">
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
@@ -3274,13 +3318,13 @@
       <c r="C69" s="9">
         <v>45155</v>
       </c>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8" t="s">
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
@@ -3312,11 +3356,11 @@
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
-      <c r="F70" s="11" t="s">
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
       <c r="I70" s="11"/>
       <c r="J70" s="11"/>
       <c r="K70" s="11"/>
@@ -3414,13 +3458,13 @@
       <c r="C73" s="9">
         <v>45159</v>
       </c>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8" t="s">
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
@@ -3450,13 +3494,13 @@
       <c r="C74" s="9">
         <v>45160</v>
       </c>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8" t="s">
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
@@ -3486,13 +3530,13 @@
       <c r="C75" s="9">
         <v>45161</v>
       </c>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8" t="s">
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
@@ -3522,13 +3566,13 @@
       <c r="C76" s="9">
         <v>45162</v>
       </c>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8" t="s">
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
@@ -3560,11 +3604,11 @@
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
-      <c r="F77" s="11" t="s">
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
       <c r="I77" s="11"/>
       <c r="J77" s="11"/>
       <c r="K77" s="11"/>
@@ -3662,13 +3706,13 @@
       <c r="C80" s="9">
         <v>45166</v>
       </c>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8" t="s">
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
@@ -3698,13 +3742,13 @@
       <c r="C81" s="9">
         <v>45167</v>
       </c>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8" t="s">
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
@@ -3734,13 +3778,13 @@
       <c r="C82" s="9">
         <v>45168</v>
       </c>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8" t="s">
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
@@ -3770,13 +3814,13 @@
       <c r="C83" s="9">
         <v>45169</v>
       </c>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8" t="s">
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
@@ -3808,11 +3852,11 @@
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
-      <c r="F84" s="11" t="s">
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G84" s="11"/>
-      <c r="H84" s="11"/>
       <c r="I84" s="11"/>
       <c r="J84" s="11"/>
       <c r="K84" s="11"/>
@@ -3910,13 +3954,13 @@
       <c r="C87" s="9">
         <v>45173</v>
       </c>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8" t="s">
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
@@ -3946,13 +3990,13 @@
       <c r="C88" s="9">
         <v>45174</v>
       </c>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8" t="s">
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
@@ -3982,13 +4026,13 @@
       <c r="C89" s="9">
         <v>45175</v>
       </c>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8" t="s">
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
@@ -4018,13 +4062,13 @@
       <c r="C90" s="9">
         <v>45176</v>
       </c>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8" t="s">
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
@@ -4056,11 +4100,11 @@
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11"/>
-      <c r="F91" s="11" t="s">
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G91" s="11"/>
-      <c r="H91" s="11"/>
       <c r="I91" s="11"/>
       <c r="J91" s="11"/>
       <c r="K91" s="11"/>
@@ -4158,13 +4202,13 @@
       <c r="C94" s="9">
         <v>45180</v>
       </c>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8" t="s">
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
@@ -4194,13 +4238,13 @@
       <c r="C95" s="9">
         <v>45181</v>
       </c>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8" t="s">
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
@@ -4230,13 +4274,13 @@
       <c r="C96" s="9">
         <v>45182</v>
       </c>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8" t="s">
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
@@ -4266,13 +4310,13 @@
       <c r="C97" s="9">
         <v>45183</v>
       </c>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8" t="s">
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
@@ -4304,11 +4348,11 @@
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11"/>
-      <c r="F98" s="11" t="s">
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G98" s="11"/>
-      <c r="H98" s="11"/>
       <c r="I98" s="11"/>
       <c r="J98" s="11"/>
       <c r="K98" s="11"/>
@@ -4406,13 +4450,13 @@
       <c r="C101" s="9">
         <v>45187</v>
       </c>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8" t="s">
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
@@ -4442,13 +4486,13 @@
       <c r="C102" s="9">
         <v>45188</v>
       </c>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8" t="s">
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G102" s="8"/>
-      <c r="H102" s="8"/>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
@@ -4478,13 +4522,13 @@
       <c r="C103" s="9">
         <v>45189</v>
       </c>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8" t="s">
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G103" s="8"/>
-      <c r="H103" s="8"/>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
@@ -4514,13 +4558,13 @@
       <c r="C104" s="9">
         <v>45190</v>
       </c>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8" t="s">
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G104" s="8"/>
-      <c r="H104" s="8"/>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
@@ -4552,11 +4596,11 @@
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11"/>
-      <c r="F105" s="11" t="s">
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G105" s="11"/>
-      <c r="H105" s="11"/>
       <c r="I105" s="11"/>
       <c r="J105" s="11"/>
       <c r="K105" s="11"/>
@@ -4654,13 +4698,13 @@
       <c r="C108" s="9">
         <v>45194</v>
       </c>
-      <c r="D108" s="8"/>
-      <c r="E108" s="8"/>
-      <c r="F108" s="8" t="s">
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G108" s="8"/>
-      <c r="H108" s="8"/>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
@@ -4690,13 +4734,13 @@
       <c r="C109" s="9">
         <v>45195</v>
       </c>
-      <c r="D109" s="8"/>
-      <c r="E109" s="8"/>
-      <c r="F109" s="8" t="s">
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G109" s="8"/>
-      <c r="H109" s="8"/>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
@@ -4726,13 +4770,13 @@
       <c r="C110" s="9">
         <v>45196</v>
       </c>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8" t="s">
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G110" s="8"/>
-      <c r="H110" s="8"/>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
@@ -4762,13 +4806,13 @@
       <c r="C111" s="9">
         <v>45197</v>
       </c>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
-      <c r="F111" s="8" t="s">
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
@@ -4800,11 +4844,11 @@
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="11"/>
-      <c r="F112" s="11" t="s">
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G112" s="11"/>
-      <c r="H112" s="11"/>
       <c r="I112" s="11"/>
       <c r="J112" s="11"/>
       <c r="K112" s="11"/>
@@ -4902,13 +4946,13 @@
       <c r="C115" s="9">
         <v>45201</v>
       </c>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8" t="s">
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G115" s="8"/>
-      <c r="H115" s="8"/>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
@@ -4938,13 +4982,13 @@
       <c r="C116" s="9">
         <v>45202</v>
       </c>
-      <c r="D116" s="8"/>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8" t="s">
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G116" s="8"/>
-      <c r="H116" s="8"/>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
@@ -4974,13 +5018,13 @@
       <c r="C117" s="9">
         <v>45203</v>
       </c>
-      <c r="D117" s="8"/>
-      <c r="E117" s="8"/>
-      <c r="F117" s="8" t="s">
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G117" s="8"/>
-      <c r="H117" s="8"/>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
@@ -5010,13 +5054,13 @@
       <c r="C118" s="12">
         <v>45204</v>
       </c>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8" t="s">
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G118" s="8"/>
-      <c r="H118" s="8"/>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
@@ -5048,11 +5092,11 @@
       </c>
       <c r="D119" s="11"/>
       <c r="E119" s="11"/>
-      <c r="F119" s="11" t="s">
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G119" s="11"/>
-      <c r="H119" s="11"/>
       <c r="I119" s="11"/>
       <c r="J119" s="11"/>
       <c r="K119" s="11"/>
@@ -5152,11 +5196,11 @@
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
-      <c r="F122" s="8" t="s">
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G122" s="8"/>
-      <c r="H122" s="8"/>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
@@ -5188,11 +5232,11 @@
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
-      <c r="F123" s="11" t="s">
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G123" s="8"/>
-      <c r="H123" s="8"/>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>

--- a/rmfd23.xlsx
+++ b/rmfd23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sirigirs\Desktop\DLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061455D8-D66D-4176-875C-8538387A2BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B694A94-9EC9-40D4-B5A4-A2A2F94441C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="102">
   <si>
     <t>S.NO</t>
   </si>
@@ -344,7 +344,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,8 +383,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,6 +413,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -472,6 +485,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -960,10 +974,10 @@
   <dimension ref="A1:Z301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G29" sqref="G29"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1196,13 +1210,9 @@
       <c r="C6" s="9">
         <v>45092</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="D6" s="8"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
-        <v>80</v>
-      </c>
+      <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8" t="s">
         <v>48</v>
@@ -1236,13 +1246,9 @@
       <c r="C7" s="11">
         <v>45093</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="D7" s="10"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="8" t="s">
-        <v>80</v>
-      </c>
+      <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="8" t="s">
         <v>48</v>
@@ -1284,7 +1290,7 @@
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
-      <c r="L8" s="15"/>
+      <c r="L8" s="16"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
@@ -1349,7 +1355,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8" t="s">
@@ -1389,7 +1395,7 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
@@ -1429,7 +1435,7 @@
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="10" t="s">
@@ -1469,7 +1475,7 @@
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8" t="s">
@@ -1504,12 +1510,12 @@
       <c r="C14" s="11">
         <v>45100</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>69</v>
+      <c r="D14" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="E14" s="10"/>
-      <c r="F14" s="10" t="s">
-        <v>83</v>
+      <c r="F14" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10" t="s">
@@ -1552,7 +1558,7 @@
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
-      <c r="L15" s="15"/>
+      <c r="L15" s="16"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
@@ -1575,7 +1581,7 @@
       <c r="B16" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="15">
         <v>45102</v>
       </c>
       <c r="D16" s="12"/>
@@ -1612,12 +1618,12 @@
       <c r="C17" s="9">
         <v>45103</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>69</v>
+      <c r="D17" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="E17" s="8"/>
-      <c r="F17" s="10" t="s">
-        <v>83</v>
+      <c r="F17" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="10" t="s">
@@ -1656,8 +1662,8 @@
         <v>69</v>
       </c>
       <c r="E18" s="8"/>
-      <c r="F18" s="8" t="s">
-        <v>84</v>
+      <c r="F18" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8" t="s">
@@ -1696,8 +1702,8 @@
         <v>69</v>
       </c>
       <c r="E19" s="8"/>
-      <c r="F19" s="8" t="s">
-        <v>84</v>
+      <c r="F19" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="10" t="s">
@@ -1737,7 +1743,7 @@
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8" t="s">
@@ -1773,11 +1779,11 @@
         <v>45107</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="8" t="s">
@@ -1820,7 +1826,7 @@
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
-      <c r="L22" s="15"/>
+      <c r="L22" s="16"/>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
@@ -1881,7 +1887,7 @@
         <v>45110</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8" t="s">
@@ -1925,7 +1931,7 @@
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="10" t="s">
@@ -1965,7 +1971,7 @@
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="10" t="s">
@@ -2000,12 +2006,12 @@
       <c r="C27" s="9">
         <v>45113</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>71</v>
+      <c r="D27" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8" t="s">
@@ -2040,12 +2046,12 @@
       <c r="C28" s="11">
         <v>45114</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>71</v>
+      <c r="D28" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="E28" s="10"/>
-      <c r="F28" s="10" t="s">
-        <v>88</v>
+      <c r="F28" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="8" t="s">
@@ -2088,7 +2094,7 @@
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
-      <c r="L29" s="15"/>
+      <c r="L29" s="16"/>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
@@ -2152,8 +2158,8 @@
         <v>71</v>
       </c>
       <c r="E31" s="8"/>
-      <c r="F31" s="10" t="s">
-        <v>88</v>
+      <c r="F31" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8" t="s">
@@ -2272,8 +2278,8 @@
         <v>71</v>
       </c>
       <c r="E34" s="8"/>
-      <c r="F34" s="8" t="s">
-        <v>89</v>
+      <c r="F34" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="10" t="s">
@@ -2305,15 +2311,15 @@
       <c r="B35" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="15">
         <v>45121</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>72</v>
+      <c r="D35" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="E35" s="10"/>
-      <c r="F35" s="8" t="s">
-        <v>89</v>
+      <c r="F35" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10" t="s">
@@ -2356,7 +2362,7 @@
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
-      <c r="L36" s="15"/>
+      <c r="L36" s="16"/>
       <c r="M36" s="12"/>
       <c r="N36" s="12"/>
       <c r="O36" s="12"/>
@@ -2416,8 +2422,8 @@
       <c r="C38" s="9">
         <v>45124</v>
       </c>
-      <c r="D38" s="10" t="s">
-        <v>72</v>
+      <c r="D38" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="8" t="s">
@@ -2537,7 +2543,7 @@
         <v>45127</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="8" t="s">
@@ -2577,11 +2583,11 @@
         <v>45128</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E42" s="10"/>
-      <c r="F42" s="10" t="s">
-        <v>90</v>
+      <c r="F42" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="G42" s="10"/>
       <c r="H42" s="8" t="s">
@@ -2624,7 +2630,7 @@
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
-      <c r="L43" s="15"/>
+      <c r="L43" s="16"/>
       <c r="M43" s="12"/>
       <c r="N43" s="12"/>
       <c r="O43" s="12"/>
@@ -2689,7 +2695,7 @@
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G45" s="8"/>
       <c r="H45" s="8" t="s">
@@ -2728,8 +2734,8 @@
         <v>73</v>
       </c>
       <c r="E46" s="10"/>
-      <c r="F46" s="8" t="s">
-        <v>91</v>
+      <c r="F46" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="8" t="s">
@@ -2769,7 +2775,7 @@
       </c>
       <c r="E47" s="10"/>
       <c r="F47" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" s="8"/>
       <c r="H47" s="10" t="s">
@@ -2809,7 +2815,7 @@
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G48" s="8"/>
       <c r="H48" s="8" t="s">
@@ -2841,15 +2847,15 @@
       <c r="B49" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="15">
         <v>45135</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E49" s="10"/>
-      <c r="F49" s="10" t="s">
-        <v>93</v>
+      <c r="F49" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="G49" s="10"/>
       <c r="H49" s="8" t="s">
@@ -2892,7 +2898,7 @@
       <c r="I50" s="12"/>
       <c r="J50" s="12"/>
       <c r="K50" s="12"/>
-      <c r="L50" s="15"/>
+      <c r="L50" s="16"/>
       <c r="M50" s="12"/>
       <c r="N50" s="12"/>
       <c r="O50" s="12"/>
@@ -2953,11 +2959,11 @@
         <v>45138</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E52" s="10"/>
-      <c r="F52" s="10" t="s">
-        <v>93</v>
+      <c r="F52" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="G52" s="8"/>
       <c r="H52" s="8" t="s">
@@ -2996,8 +3002,8 @@
         <v>74</v>
       </c>
       <c r="E53" s="10"/>
-      <c r="F53" s="8" t="s">
-        <v>94</v>
+      <c r="F53" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="G53" s="8"/>
       <c r="H53" s="8" t="s">
@@ -3036,8 +3042,8 @@
         <v>74</v>
       </c>
       <c r="E54" s="10"/>
-      <c r="F54" s="8" t="s">
-        <v>95</v>
+      <c r="F54" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="G54" s="8"/>
       <c r="H54" s="10" t="s">
@@ -3077,7 +3083,7 @@
       </c>
       <c r="E55" s="10"/>
       <c r="F55" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G55" s="8"/>
       <c r="H55" s="8" t="s">
@@ -3116,8 +3122,8 @@
         <v>74</v>
       </c>
       <c r="E56" s="10"/>
-      <c r="F56" s="10" t="s">
-        <v>96</v>
+      <c r="F56" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="G56" s="10"/>
       <c r="H56" s="8" t="s">
@@ -3160,7 +3166,7 @@
       <c r="I57" s="12"/>
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
-      <c r="L57" s="15"/>
+      <c r="L57" s="16"/>
       <c r="M57" s="12"/>
       <c r="N57" s="12"/>
       <c r="O57" s="12"/>
@@ -3224,8 +3230,8 @@
         <v>74</v>
       </c>
       <c r="E59" s="10"/>
-      <c r="F59" s="10" t="s">
-        <v>96</v>
+      <c r="F59" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="G59" s="8"/>
       <c r="H59" s="8" t="s">
@@ -3428,7 +3434,7 @@
       <c r="I64" s="12"/>
       <c r="J64" s="12"/>
       <c r="K64" s="12"/>
-      <c r="L64" s="15"/>
+      <c r="L64" s="16"/>
       <c r="M64" s="12"/>
       <c r="N64" s="12"/>
       <c r="O64" s="12"/>
@@ -3489,11 +3495,11 @@
         <v>45152</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E66" s="10"/>
-      <c r="F66" s="8" t="s">
-        <v>97</v>
+      <c r="F66" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="G66" s="8"/>
       <c r="H66" s="8" t="s">
@@ -3529,11 +3535,11 @@
         <v>45153</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E67" s="10"/>
-      <c r="F67" s="8" t="s">
-        <v>97</v>
+      <c r="F67" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="G67" s="8"/>
       <c r="H67" s="8" t="s">
@@ -3652,8 +3658,8 @@
         <v>75</v>
       </c>
       <c r="E70" s="10"/>
-      <c r="F70" s="10" t="s">
-        <v>98</v>
+      <c r="F70" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="G70" s="10"/>
       <c r="H70" s="8" t="s">
@@ -3696,7 +3702,7 @@
       <c r="I71" s="12"/>
       <c r="J71" s="12"/>
       <c r="K71" s="12"/>
-      <c r="L71" s="15"/>
+      <c r="L71" s="16"/>
       <c r="M71" s="12"/>
       <c r="N71" s="12"/>
       <c r="O71" s="12"/>
@@ -3761,7 +3767,7 @@
       </c>
       <c r="E73" s="10"/>
       <c r="F73" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G73" s="8"/>
       <c r="H73" s="8" t="s">
@@ -3800,8 +3806,8 @@
         <v>75</v>
       </c>
       <c r="E74" s="10"/>
-      <c r="F74" s="8" t="s">
-        <v>100</v>
+      <c r="F74" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="G74" s="8"/>
       <c r="H74" s="8" t="s">
@@ -3837,11 +3843,11 @@
         <v>45161</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E75" s="10"/>
       <c r="F75" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G75" s="8"/>
       <c r="H75" s="10" t="s">
@@ -3877,7 +3883,7 @@
         <v>45162</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E76" s="10"/>
       <c r="F76" s="8" t="s">
@@ -3964,7 +3970,7 @@
       <c r="I78" s="12"/>
       <c r="J78" s="12"/>
       <c r="K78" s="12"/>
-      <c r="L78" s="15"/>
+      <c r="L78" s="16"/>
       <c r="M78" s="12"/>
       <c r="N78" s="12"/>
       <c r="O78" s="12"/>
@@ -4029,7 +4035,7 @@
       </c>
       <c r="E80" s="10"/>
       <c r="F80" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G80" s="8"/>
       <c r="H80" s="8" t="s">
@@ -4068,7 +4074,9 @@
         <v>76</v>
       </c>
       <c r="E81" s="10"/>
-      <c r="F81" s="8"/>
+      <c r="F81" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="G81" s="8"/>
       <c r="H81" s="8" t="s">
         <v>27</v>
@@ -4106,7 +4114,9 @@
         <v>76</v>
       </c>
       <c r="E82" s="10"/>
-      <c r="F82" s="8"/>
+      <c r="F82" s="8" t="s">
+        <v>101</v>
+      </c>
       <c r="G82" s="8"/>
       <c r="H82" s="10" t="s">
         <v>27</v>
@@ -4224,7 +4234,7 @@
       <c r="I85" s="12"/>
       <c r="J85" s="12"/>
       <c r="K85" s="12"/>
-      <c r="L85" s="15"/>
+      <c r="L85" s="16"/>
       <c r="M85" s="12"/>
       <c r="N85" s="12"/>
       <c r="O85" s="12"/>
@@ -4323,7 +4333,7 @@
         <v>45174</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E88" s="10"/>
       <c r="F88" s="8"/>
@@ -4361,7 +4371,7 @@
         <v>45175</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E89" s="10"/>
       <c r="F89" s="8"/>
@@ -4482,7 +4492,7 @@
       <c r="I92" s="12"/>
       <c r="J92" s="12"/>
       <c r="K92" s="12"/>
-      <c r="L92" s="15"/>
+      <c r="L92" s="16"/>
       <c r="M92" s="12"/>
       <c r="N92" s="12"/>
       <c r="O92" s="12"/>
@@ -4581,7 +4591,7 @@
         <v>45181</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E95" s="10"/>
       <c r="F95" s="8"/>
@@ -4619,7 +4629,7 @@
         <v>45182</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E96" s="10"/>
       <c r="F96" s="8"/>
@@ -4740,7 +4750,7 @@
       <c r="I99" s="12"/>
       <c r="J99" s="12"/>
       <c r="K99" s="12"/>
-      <c r="L99" s="15"/>
+      <c r="L99" s="16"/>
       <c r="M99" s="12"/>
       <c r="N99" s="12"/>
       <c r="O99" s="12"/>
@@ -4998,7 +5008,7 @@
       <c r="I106" s="12"/>
       <c r="J106" s="12"/>
       <c r="K106" s="12"/>
-      <c r="L106" s="15"/>
+      <c r="L106" s="16"/>
       <c r="M106" s="12"/>
       <c r="N106" s="12"/>
       <c r="O106" s="12"/>
@@ -5256,7 +5266,7 @@
       <c r="I113" s="12"/>
       <c r="J113" s="12"/>
       <c r="K113" s="12"/>
-      <c r="L113" s="15"/>
+      <c r="L113" s="16"/>
       <c r="M113" s="12"/>
       <c r="N113" s="12"/>
       <c r="O113" s="12"/>
@@ -5431,7 +5441,7 @@
         <v>45204</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E118" s="10"/>
       <c r="F118" s="8"/>
@@ -5469,7 +5479,7 @@
         <v>45205</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E119" s="10"/>
       <c r="F119" s="10"/>
@@ -5514,7 +5524,7 @@
       <c r="I120" s="12"/>
       <c r="J120" s="12"/>
       <c r="K120" s="12"/>
-      <c r="L120" s="15"/>
+      <c r="L120" s="16"/>
       <c r="M120" s="12"/>
       <c r="N120" s="12"/>
       <c r="O120" s="12"/>
@@ -5772,7 +5782,7 @@
       <c r="I127" s="12"/>
       <c r="J127" s="12"/>
       <c r="K127" s="12"/>
-      <c r="L127" s="12"/>
+      <c r="L127" s="16"/>
       <c r="M127" s="12"/>
       <c r="N127" s="12"/>
       <c r="O127" s="12"/>
@@ -5806,7 +5816,7 @@
       <c r="I128" s="12"/>
       <c r="J128" s="12"/>
       <c r="K128" s="12"/>
-      <c r="L128" s="12"/>
+      <c r="L128" s="16"/>
       <c r="M128" s="12"/>
       <c r="N128" s="12"/>
       <c r="O128" s="12"/>
@@ -6020,7 +6030,7 @@
       <c r="I134" s="12"/>
       <c r="J134" s="12"/>
       <c r="K134" s="12"/>
-      <c r="L134" s="12"/>
+      <c r="L134" s="16"/>
       <c r="M134" s="12"/>
       <c r="N134" s="12"/>
       <c r="O134" s="12"/>
@@ -6054,7 +6064,7 @@
       <c r="I135" s="12"/>
       <c r="J135" s="12"/>
       <c r="K135" s="12"/>
-      <c r="L135" s="12"/>
+      <c r="L135" s="16"/>
       <c r="M135" s="12"/>
       <c r="N135" s="12"/>
       <c r="O135" s="12"/>
@@ -6107,10 +6117,18 @@
       <c r="Z136" s="10"/>
     </row>
     <row r="137" spans="1:26" s="14" customFormat="1">
-      <c r="A137" s="10"/>
-      <c r="B137" s="10"/>
-      <c r="C137" s="10"/>
-      <c r="D137" s="10"/>
+      <c r="A137" s="10">
+        <v>136</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137" s="9">
+        <v>45223</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="E137" s="10"/>
       <c r="F137" s="10"/>
       <c r="G137" s="10"/>
@@ -6135,10 +6153,18 @@
       <c r="Z137" s="10"/>
     </row>
     <row r="138" spans="1:26" s="14" customFormat="1">
-      <c r="A138" s="10"/>
-      <c r="B138" s="10"/>
-      <c r="C138" s="10"/>
-      <c r="D138" s="10"/>
+      <c r="A138" s="8">
+        <v>137</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138" s="11">
+        <v>45224</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="E138" s="10"/>
       <c r="F138" s="10"/>
       <c r="G138" s="10"/>
@@ -6163,9 +6189,15 @@
       <c r="Z138" s="10"/>
     </row>
     <row r="139" spans="1:26" s="14" customFormat="1">
-      <c r="A139" s="10"/>
-      <c r="B139" s="10"/>
-      <c r="C139" s="10"/>
+      <c r="A139" s="10">
+        <v>138</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139" s="11">
+        <v>45225</v>
+      </c>
       <c r="D139" s="10"/>
       <c r="E139" s="10"/>
       <c r="F139" s="10"/>
@@ -6191,9 +6223,15 @@
       <c r="Z139" s="10"/>
     </row>
     <row r="140" spans="1:26" s="14" customFormat="1">
-      <c r="A140" s="10"/>
-      <c r="B140" s="10"/>
-      <c r="C140" s="10"/>
+      <c r="A140" s="10">
+        <v>139</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140" s="11">
+        <v>45226</v>
+      </c>
       <c r="D140" s="10"/>
       <c r="E140" s="10"/>
       <c r="F140" s="10"/>

--- a/rmfd23.xlsx
+++ b/rmfd23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sirigirs\Desktop\DLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B694A94-9EC9-40D4-B5A4-A2A2F94441C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A54AEB0-68D6-4088-8A20-3A9DEE2C8EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="10200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="103">
   <si>
     <t>S.NO</t>
   </si>
@@ -335,6 +335,9 @@
   </si>
   <si>
     <t>23&amp;24 - Wndws &amp; R-API</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -773,19 +776,19 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="40.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
     <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="1" spans="2:3" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="B1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="15.75" thickBot="1">
+    <row r="2" spans="2:3" ht="15" thickBot="1">
       <c r="B2" s="2" t="s">
         <v>46</v>
       </c>
@@ -793,7 +796,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="15.75" thickBot="1">
+    <row r="3" spans="2:3" ht="15" thickBot="1">
       <c r="B3" s="2" t="s">
         <v>45</v>
       </c>
@@ -801,8 +804,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="15.75" thickBot="1"/>
-    <row r="7" spans="2:3" ht="15.75" thickBot="1">
+    <row r="6" spans="2:3" ht="15" thickBot="1"/>
+    <row r="7" spans="2:3" ht="15" thickBot="1">
       <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
@@ -974,22 +977,22 @@
   <dimension ref="A1:Z301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="5" customFormat="1">
@@ -1212,11 +1215,11 @@
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="G6" s="8"/>
-      <c r="H6" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -1250,9 +1253,7 @@
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
@@ -1350,17 +1351,11 @@
       <c r="C10" s="9">
         <v>45096</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="8" t="s">
-        <v>80</v>
-      </c>
+      <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -1390,17 +1385,11 @@
       <c r="C11" s="9">
         <v>45097</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="8" t="s">
-        <v>80</v>
-      </c>
+      <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -1435,10 +1424,10 @@
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" s="8"/>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="8" t="s">
         <v>48</v>
       </c>
       <c r="I12" s="8"/>
@@ -1475,7 +1464,7 @@
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8" t="s">
@@ -1513,13 +1502,13 @@
       <c r="D14" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10" t="s">
-        <v>49</v>
+        <v>81</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -1623,11 +1612,11 @@
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G17" s="8"/>
-      <c r="H17" s="10" t="s">
-        <v>49</v>
+      <c r="H17" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -1658,16 +1647,16 @@
       <c r="C18" s="9">
         <v>45104</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8" t="s">
-        <v>49</v>
+      <c r="D18" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -1698,16 +1687,16 @@
       <c r="C19" s="9">
         <v>45105</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>69</v>
+      <c r="D19" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="E19" s="8"/>
-      <c r="F19" s="10" t="s">
-        <v>83</v>
+      <c r="F19" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="G19" s="8"/>
-      <c r="H19" s="10" t="s">
-        <v>49</v>
+      <c r="H19" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -1742,11 +1731,11 @@
         <v>69</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="8" t="s">
-        <v>84</v>
+      <c r="F20" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="G20" s="8"/>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="10" t="s">
         <v>49</v>
       </c>
       <c r="I20" s="8"/>
@@ -1781,12 +1770,12 @@
       <c r="D21" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="8" t="s">
+      <c r="E21" s="8"/>
+      <c r="F21" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="10" t="s">
         <v>49</v>
       </c>
       <c r="I21" s="10"/>
@@ -1891,7 +1880,7 @@
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8" t="s">
@@ -1927,15 +1916,15 @@
         <v>45111</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="8"/>
+        <v>69</v>
+      </c>
+      <c r="E25" s="10"/>
       <c r="F25" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G25" s="8"/>
+        <v>84</v>
+      </c>
+      <c r="G25" s="10"/>
       <c r="H25" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -1967,15 +1956,15 @@
         <v>45112</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G26" s="8"/>
-      <c r="H26" s="10" t="s">
-        <v>50</v>
+      <c r="H26" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
@@ -2011,11 +2000,11 @@
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
@@ -2049,13 +2038,13 @@
       <c r="D28" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="10"/>
+      <c r="E28" s="8"/>
       <c r="F28" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G28" s="10"/>
+        <v>85</v>
+      </c>
+      <c r="G28" s="8"/>
       <c r="H28" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
@@ -2154,15 +2143,15 @@
       <c r="C31" s="9">
         <v>45117</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>71</v>
+      <c r="D31" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G31" s="8"/>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="10" t="s">
         <v>50</v>
       </c>
       <c r="I31" s="8"/>
@@ -2194,16 +2183,16 @@
       <c r="C32" s="9">
         <v>45118</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8" t="s">
-        <v>51</v>
+      <c r="D32" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
@@ -2238,12 +2227,12 @@
         <v>71</v>
       </c>
       <c r="E33" s="8"/>
-      <c r="F33" s="10" t="s">
-        <v>88</v>
+      <c r="F33" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="G33" s="8"/>
-      <c r="H33" s="10" t="s">
-        <v>52</v>
+      <c r="H33" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
@@ -2282,8 +2271,8 @@
         <v>88</v>
       </c>
       <c r="G34" s="8"/>
-      <c r="H34" s="10" t="s">
-        <v>53</v>
+      <c r="H34" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
@@ -2317,13 +2306,13 @@
       <c r="D35" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E35" s="10"/>
+      <c r="E35" s="8"/>
       <c r="F35" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10" t="s">
-        <v>53</v>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
@@ -2425,13 +2414,13 @@
       <c r="D38" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="8" t="s">
-        <v>89</v>
+      <c r="E38" s="8"/>
+      <c r="F38" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
@@ -2462,16 +2451,16 @@
       <c r="C39" s="9">
         <v>45125</v>
       </c>
-      <c r="D39" s="10" t="s">
-        <v>72</v>
+      <c r="D39" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="E39" s="10"/>
-      <c r="F39" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8" t="s">
-        <v>54</v>
+      <c r="F39" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
@@ -2502,8 +2491,8 @@
       <c r="C40" s="9">
         <v>45126</v>
       </c>
-      <c r="D40" s="10" t="s">
-        <v>72</v>
+      <c r="D40" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="8" t="s">
@@ -2511,7 +2500,7 @@
       </c>
       <c r="G40" s="8"/>
       <c r="H40" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
@@ -2550,8 +2539,8 @@
         <v>89</v>
       </c>
       <c r="G41" s="8"/>
-      <c r="H41" s="8" t="s">
-        <v>54</v>
+      <c r="H41" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
@@ -2589,9 +2578,9 @@
       <c r="F42" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G42" s="10"/>
+      <c r="G42" s="8"/>
       <c r="H42" s="8" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
@@ -2691,7 +2680,7 @@
         <v>45131</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="8" t="s">
@@ -2699,7 +2688,7 @@
       </c>
       <c r="G45" s="8"/>
       <c r="H45" s="8" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
@@ -2731,15 +2720,15 @@
         <v>45132</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E46" s="10"/>
-      <c r="F46" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8" t="s">
-        <v>19</v>
+      <c r="F46" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
@@ -2775,11 +2764,11 @@
       </c>
       <c r="E47" s="10"/>
       <c r="F47" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G47" s="8"/>
-      <c r="H47" s="10" t="s">
-        <v>19</v>
+      <c r="H47" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
@@ -2814,8 +2803,8 @@
         <v>73</v>
       </c>
       <c r="E48" s="10"/>
-      <c r="F48" s="8" t="s">
-        <v>91</v>
+      <c r="F48" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="G48" s="8"/>
       <c r="H48" s="8" t="s">
@@ -2855,9 +2844,9 @@
       </c>
       <c r="E49" s="10"/>
       <c r="F49" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G49" s="10"/>
+        <v>91</v>
+      </c>
+      <c r="G49" s="8"/>
       <c r="H49" s="8" t="s">
         <v>19</v>
       </c>
@@ -2963,7 +2952,7 @@
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G52" s="8"/>
       <c r="H52" s="8" t="s">
@@ -2999,14 +2988,14 @@
         <v>45139</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E53" s="10"/>
-      <c r="F53" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8" t="s">
+      <c r="F53" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10" t="s">
         <v>19</v>
       </c>
       <c r="I53" s="8"/>
@@ -3039,14 +3028,14 @@
         <v>45140</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E54" s="10"/>
-      <c r="F54" s="10" t="s">
-        <v>93</v>
+      <c r="F54" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="G54" s="8"/>
-      <c r="H54" s="10" t="s">
+      <c r="H54" s="8" t="s">
         <v>19</v>
       </c>
       <c r="I54" s="8"/>
@@ -3082,12 +3071,12 @@
         <v>74</v>
       </c>
       <c r="E55" s="10"/>
-      <c r="F55" s="8" t="s">
-        <v>94</v>
+      <c r="F55" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="G55" s="8"/>
       <c r="H55" s="8" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
@@ -3122,12 +3111,12 @@
         <v>74</v>
       </c>
       <c r="E56" s="10"/>
-      <c r="F56" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="G56" s="10"/>
+      <c r="F56" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G56" s="8"/>
       <c r="H56" s="8" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
@@ -3231,11 +3220,11 @@
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G59" s="8"/>
       <c r="H59" s="8" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
@@ -3270,12 +3259,12 @@
         <v>74</v>
       </c>
       <c r="E60" s="10"/>
-      <c r="F60" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8" t="s">
-        <v>39</v>
+      <c r="F60" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
@@ -3310,11 +3299,11 @@
         <v>74</v>
       </c>
       <c r="E61" s="10"/>
-      <c r="F61" s="10" t="s">
-        <v>96</v>
+      <c r="F61" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="G61" s="8"/>
-      <c r="H61" s="10" t="s">
+      <c r="H61" s="8" t="s">
         <v>39</v>
       </c>
       <c r="I61" s="8"/>
@@ -3393,7 +3382,7 @@
       <c r="F63" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G63" s="10"/>
+      <c r="G63" s="8"/>
       <c r="H63" s="8" t="s">
         <v>39</v>
       </c>
@@ -3541,8 +3530,8 @@
       <c r="F67" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8" t="s">
+      <c r="G67" s="10"/>
+      <c r="H67" s="10" t="s">
         <v>39</v>
       </c>
       <c r="I67" s="8"/>
@@ -3575,14 +3564,14 @@
         <v>45154</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E68" s="10"/>
-      <c r="F68" s="8" t="s">
-        <v>97</v>
+      <c r="F68" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="G68" s="8"/>
-      <c r="H68" s="10" t="s">
+      <c r="H68" s="8" t="s">
         <v>39</v>
       </c>
       <c r="I68" s="8"/>
@@ -3615,11 +3604,11 @@
         <v>45155</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E69" s="10"/>
-      <c r="F69" s="8" t="s">
-        <v>97</v>
+      <c r="F69" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="G69" s="8"/>
       <c r="H69" s="8" t="s">
@@ -3661,7 +3650,7 @@
       <c r="F70" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="G70" s="10"/>
+      <c r="G70" s="8"/>
       <c r="H70" s="8" t="s">
         <v>39</v>
       </c>
@@ -3806,11 +3795,11 @@
         <v>75</v>
       </c>
       <c r="E74" s="10"/>
-      <c r="F74" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8" t="s">
+      <c r="F74" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10" t="s">
         <v>39</v>
       </c>
       <c r="I74" s="8"/>
@@ -3847,10 +3836,10 @@
       </c>
       <c r="E75" s="10"/>
       <c r="F75" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G75" s="8"/>
-      <c r="H75" s="10" t="s">
+      <c r="H75" s="8" t="s">
         <v>39</v>
       </c>
       <c r="I75" s="8"/>
@@ -3886,12 +3875,12 @@
         <v>75</v>
       </c>
       <c r="E76" s="10"/>
-      <c r="F76" s="8" t="s">
-        <v>100</v>
+      <c r="F76" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="G76" s="8"/>
       <c r="H76" s="8" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
@@ -3923,15 +3912,15 @@
         <v>45163</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E77" s="10"/>
       <c r="F77" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G77" s="10"/>
+        <v>99</v>
+      </c>
+      <c r="G77" s="8"/>
       <c r="H77" s="8" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I77" s="10"/>
       <c r="J77" s="10"/>
@@ -4031,7 +4020,7 @@
         <v>45166</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E80" s="10"/>
       <c r="F80" s="8" t="s">
@@ -4039,7 +4028,7 @@
       </c>
       <c r="G80" s="8"/>
       <c r="H80" s="8" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
@@ -4077,9 +4066,9 @@
       <c r="F81" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8" t="s">
-        <v>27</v>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
@@ -4115,10 +4104,10 @@
       </c>
       <c r="E82" s="10"/>
       <c r="F82" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G82" s="8"/>
-      <c r="H82" s="10" t="s">
+      <c r="H82" s="8" t="s">
         <v>27</v>
       </c>
       <c r="I82" s="8"/>
@@ -4154,10 +4143,12 @@
         <v>76</v>
       </c>
       <c r="E83" s="10"/>
-      <c r="F83" s="8"/>
+      <c r="F83" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="G83" s="8"/>
       <c r="H83" s="8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
@@ -4192,10 +4183,12 @@
         <v>76</v>
       </c>
       <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
+      <c r="F84" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G84" s="8"/>
       <c r="H84" s="8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I84" s="10"/>
       <c r="J84" s="10"/>
@@ -4301,7 +4294,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c r="H87" s="8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
@@ -4336,10 +4329,10 @@
         <v>76</v>
       </c>
       <c r="E88" s="10"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8" t="s">
-        <v>21</v>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
@@ -4376,7 +4369,7 @@
       <c r="E89" s="10"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
-      <c r="H89" s="10" t="s">
+      <c r="H89" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I89" s="8"/>
@@ -4409,7 +4402,7 @@
         <v>45176</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E90" s="10"/>
       <c r="F90" s="8"/>
@@ -4447,11 +4440,11 @@
         <v>45177</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
       <c r="H91" s="8" t="s">
         <v>21</v>
       </c>
@@ -4594,9 +4587,9 @@
         <v>77</v>
       </c>
       <c r="E95" s="10"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8" t="s">
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10" t="s">
         <v>21</v>
       </c>
       <c r="I95" s="8"/>
@@ -4634,7 +4627,7 @@
       <c r="E96" s="10"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
-      <c r="H96" s="10" t="s">
+      <c r="H96" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I96" s="8"/>
@@ -4667,7 +4660,7 @@
         <v>45183</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E97" s="10"/>
       <c r="F97" s="8"/>
@@ -4705,11 +4698,11 @@
         <v>45184</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
       <c r="H98" s="8" t="s">
         <v>21</v>
       </c>
@@ -4852,9 +4845,9 @@
         <v>78</v>
       </c>
       <c r="E102" s="10"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="8" t="s">
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10" t="s">
         <v>21</v>
       </c>
       <c r="I102" s="8"/>
@@ -4892,7 +4885,7 @@
       <c r="E103" s="10"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
-      <c r="H103" s="10" t="s">
+      <c r="H103" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I103" s="8"/>
@@ -4931,7 +4924,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c r="H104" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
@@ -4966,10 +4959,10 @@
         <v>78</v>
       </c>
       <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
       <c r="H105" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I105" s="10"/>
       <c r="J105" s="10"/>
@@ -5075,7 +5068,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c r="H108" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
@@ -5110,10 +5103,10 @@
         <v>78</v>
       </c>
       <c r="E109" s="10"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="8" t="s">
-        <v>22</v>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
@@ -5150,7 +5143,7 @@
       <c r="E110" s="10"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
-      <c r="H110" s="10" t="s">
+      <c r="H110" s="8" t="s">
         <v>22</v>
       </c>
       <c r="I110" s="8"/>
@@ -5224,8 +5217,8 @@
         <v>78</v>
       </c>
       <c r="E112" s="10"/>
-      <c r="F112" s="10"/>
-      <c r="G112" s="10"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
       <c r="H112" s="8" t="s">
         <v>22</v>
       </c>
@@ -5368,10 +5361,10 @@
         <v>78</v>
       </c>
       <c r="E116" s="10"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="8"/>
-      <c r="H116" s="8" t="s">
-        <v>55</v>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
@@ -5408,8 +5401,8 @@
       <c r="E117" s="10"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
-      <c r="H117" s="10" t="s">
-        <v>55</v>
+      <c r="H117" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
@@ -5447,7 +5440,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c r="H118" s="8" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
@@ -5482,10 +5475,10 @@
         <v>78</v>
       </c>
       <c r="E119" s="10"/>
-      <c r="F119" s="10"/>
-      <c r="G119" s="10"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
       <c r="H119" s="8" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="I119" s="10"/>
       <c r="J119" s="10"/>
@@ -5585,9 +5578,9 @@
         <v>45208</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E122" s="8"/>
+        <v>78</v>
+      </c>
+      <c r="E122" s="10"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c r="H122" s="8" t="s">
@@ -5623,12 +5616,12 @@
         <v>45209</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="8"/>
-      <c r="H123" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="10" t="s">
         <v>55</v>
       </c>
       <c r="I123" s="8"/>
@@ -5666,7 +5659,7 @@
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
-      <c r="H124" s="10" t="s">
+      <c r="H124" s="8" t="s">
         <v>55</v>
       </c>
       <c r="I124" s="8"/>
@@ -5739,11 +5732,11 @@
       <c r="D126" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E126" s="10"/>
-      <c r="F126" s="10"/>
-      <c r="G126" s="10"/>
-      <c r="H126" s="10" t="s">
-        <v>56</v>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="I126" s="10"/>
       <c r="J126" s="10"/>
@@ -5848,7 +5841,9 @@
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
-      <c r="H129" s="8"/>
+      <c r="H129" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="I129" s="8"/>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
@@ -5884,7 +5879,9 @@
       <c r="E130" s="10"/>
       <c r="F130" s="10"/>
       <c r="G130" s="10"/>
-      <c r="H130" s="10"/>
+      <c r="H130" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="I130" s="10"/>
       <c r="J130" s="10"/>
       <c r="K130" s="10"/>
@@ -5920,7 +5917,9 @@
       <c r="E131" s="10"/>
       <c r="F131" s="10"/>
       <c r="G131" s="10"/>
-      <c r="H131" s="10"/>
+      <c r="H131" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="I131" s="10"/>
       <c r="J131" s="10"/>
       <c r="K131" s="10"/>
@@ -5956,7 +5955,9 @@
       <c r="E132" s="10"/>
       <c r="F132" s="10"/>
       <c r="G132" s="10"/>
-      <c r="H132" s="10"/>
+      <c r="H132" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="I132" s="10"/>
       <c r="J132" s="10"/>
       <c r="K132" s="10"/>
@@ -6198,7 +6199,9 @@
       <c r="C139" s="11">
         <v>45225</v>
       </c>
-      <c r="D139" s="10"/>
+      <c r="D139" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="E139" s="10"/>
       <c r="F139" s="10"/>
       <c r="G139" s="10"/>
@@ -6232,7 +6235,9 @@
       <c r="C140" s="11">
         <v>45226</v>
       </c>
-      <c r="D140" s="10"/>
+      <c r="D140" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="E140" s="10"/>
       <c r="F140" s="10"/>
       <c r="G140" s="10"/>

--- a/rmfd23.xlsx
+++ b/rmfd23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sirigirs\Desktop\DLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A54AEB0-68D6-4088-8A20-3A9DEE2C8EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4B1ADF-F5B2-49AA-89B5-9A59DEF03F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="10200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="600" windowWidth="19180" windowHeight="10200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="102">
   <si>
     <t>S.NO</t>
   </si>
@@ -197,9 +197,6 @@
   </si>
   <si>
     <t>Project</t>
-  </si>
-  <si>
-    <t>Resume</t>
   </si>
   <si>
     <t>Adhoc Timing</t>
@@ -977,10 +974,10 @@
   <dimension ref="A1:Z301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
+      <selection pane="bottomRight" activeCell="D149" sqref="D149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1006,13 +1003,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>47</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>47</v>
@@ -1024,7 +1021,7 @@
         <v>47</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
@@ -1054,11 +1051,11 @@
         <v>45088</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -1092,19 +1089,19 @@
         <v>45089</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>62</v>
-      </c>
       <c r="H3" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -1136,13 +1133,13 @@
         <v>45090</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -1176,11 +1173,11 @@
         <v>45091</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -1216,7 +1213,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -1419,17 +1416,11 @@
       <c r="C12" s="9">
         <v>45098</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="8" t="s">
-        <v>80</v>
-      </c>
+      <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -1459,17 +1450,11 @@
       <c r="C13" s="9">
         <v>45099</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="8" t="s">
-        <v>80</v>
-      </c>
+      <c r="F13" s="8"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -1500,11 +1485,11 @@
         <v>45100</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8" t="s">
@@ -1608,11 +1593,11 @@
         <v>45103</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8" t="s">
@@ -1648,14 +1633,14 @@
         <v>45104</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="10"/>
+        <v>64</v>
+      </c>
+      <c r="E18" s="8"/>
       <c r="F18" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8" t="s">
         <v>48</v>
       </c>
       <c r="I18" s="8"/>
@@ -1688,11 +1673,11 @@
         <v>45105</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8" t="s">
@@ -1727,16 +1712,16 @@
       <c r="C20" s="9">
         <v>45106</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="10"/>
       <c r="H20" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -1767,16 +1752,16 @@
       <c r="C21" s="11">
         <v>45107</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>69</v>
+      <c r="D21" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E21" s="8"/>
-      <c r="F21" s="10" t="s">
-        <v>83</v>
+      <c r="F21" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="G21" s="8"/>
-      <c r="H21" s="10" t="s">
-        <v>49</v>
+      <c r="H21" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
@@ -1876,14 +1861,14 @@
         <v>45110</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E24" s="8"/>
-      <c r="F24" s="8" t="s">
-        <v>84</v>
+      <c r="F24" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="G24" s="8"/>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="10" t="s">
         <v>49</v>
       </c>
       <c r="I24" s="8"/>
@@ -1916,13 +1901,13 @@
         <v>45111</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G25" s="10"/>
+        <v>68</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="8"/>
       <c r="H25" s="10" t="s">
         <v>49</v>
       </c>
@@ -1956,11 +1941,11 @@
         <v>45112</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8" t="s">
@@ -1996,14 +1981,14 @@
         <v>45113</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="E27" s="10"/>
       <c r="F27" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10" t="s">
         <v>49</v>
       </c>
       <c r="I27" s="8"/>
@@ -2036,11 +2021,11 @@
         <v>45114</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8" t="s">
@@ -2144,15 +2129,15 @@
         <v>45117</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G31" s="8"/>
-      <c r="H31" s="10" t="s">
-        <v>50</v>
+      <c r="H31" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
@@ -2184,15 +2169,15 @@
         <v>45118</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="10"/>
+        <v>69</v>
+      </c>
+      <c r="E32" s="8"/>
       <c r="F32" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10" t="s">
-        <v>50</v>
+        <v>84</v>
+      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
@@ -2223,15 +2208,15 @@
       <c r="C33" s="9">
         <v>45119</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>71</v>
+      <c r="D33" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G33" s="8"/>
-      <c r="H33" s="8" t="s">
+      <c r="H33" s="10" t="s">
         <v>50</v>
       </c>
       <c r="I33" s="8"/>
@@ -2263,15 +2248,15 @@
       <c r="C34" s="9">
         <v>45120</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8" t="s">
+      <c r="D34" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10" t="s">
         <v>50</v>
       </c>
       <c r="I34" s="8"/>
@@ -2304,11 +2289,11 @@
         <v>45121</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E35" s="8"/>
-      <c r="F35" s="10" t="s">
-        <v>88</v>
+      <c r="F35" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="G35" s="8"/>
       <c r="H35" s="8" t="s">
@@ -2412,15 +2397,15 @@
         <v>45124</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
@@ -2452,15 +2437,15 @@
         <v>45125</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E39" s="10"/>
+        <v>70</v>
+      </c>
+      <c r="E39" s="8"/>
       <c r="F39" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10" t="s">
-        <v>52</v>
+        <v>87</v>
+      </c>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
@@ -2492,15 +2477,15 @@
         <v>45126</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="8" t="s">
-        <v>89</v>
+        <v>70</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="G40" s="8"/>
-      <c r="H40" s="10" t="s">
-        <v>53</v>
+      <c r="H40" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
@@ -2531,16 +2516,16 @@
       <c r="C41" s="9">
         <v>45127</v>
       </c>
-      <c r="D41" s="10" t="s">
-        <v>72</v>
+      <c r="D41" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="E41" s="10"/>
-      <c r="F41" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G41" s="8"/>
+      <c r="F41" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G41" s="10"/>
       <c r="H41" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
@@ -2571,16 +2556,16 @@
       <c r="C42" s="11">
         <v>45128</v>
       </c>
-      <c r="D42" s="10" t="s">
-        <v>72</v>
+      <c r="D42" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G42" s="8"/>
-      <c r="H42" s="8" t="s">
-        <v>54</v>
+      <c r="H42" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
@@ -2680,15 +2665,15 @@
         <v>45131</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G45" s="8"/>
-      <c r="H45" s="8" t="s">
-        <v>54</v>
+      <c r="H45" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
@@ -2720,14 +2705,14 @@
         <v>45132</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8" t="s">
         <v>54</v>
       </c>
       <c r="I46" s="8"/>
@@ -2760,11 +2745,11 @@
         <v>45133</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E47" s="10"/>
       <c r="F47" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G47" s="8"/>
       <c r="H47" s="8" t="s">
@@ -2800,15 +2785,15 @@
         <v>45134</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E48" s="10"/>
-      <c r="F48" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8" t="s">
-        <v>19</v>
+      <c r="F48" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
@@ -2840,15 +2825,15 @@
         <v>45135</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E49" s="10"/>
       <c r="F49" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G49" s="8"/>
       <c r="H49" s="8" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
@@ -2948,11 +2933,11 @@
         <v>45138</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E52" s="10"/>
-      <c r="F52" s="8" t="s">
-        <v>91</v>
+      <c r="F52" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="G52" s="8"/>
       <c r="H52" s="8" t="s">
@@ -2988,14 +2973,14 @@
         <v>45139</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8" t="s">
         <v>19</v>
       </c>
       <c r="I53" s="8"/>
@@ -3028,11 +3013,11 @@
         <v>45140</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G54" s="8"/>
       <c r="H54" s="8" t="s">
@@ -3068,14 +3053,14 @@
         <v>45141</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E55" s="10"/>
-      <c r="F55" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8" t="s">
+      <c r="F55" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10" t="s">
         <v>19</v>
       </c>
       <c r="I55" s="8"/>
@@ -3108,11 +3093,11 @@
         <v>45142</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E56" s="10"/>
-      <c r="F56" s="10" t="s">
-        <v>93</v>
+      <c r="F56" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="G56" s="8"/>
       <c r="H56" s="8" t="s">
@@ -3216,11 +3201,11 @@
         <v>45145</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E59" s="10"/>
-      <c r="F59" s="8" t="s">
-        <v>94</v>
+      <c r="F59" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="G59" s="8"/>
       <c r="H59" s="8" t="s">
@@ -3256,14 +3241,14 @@
         <v>45146</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E60" s="10"/>
-      <c r="F60" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10" t="s">
+      <c r="F60" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8" t="s">
         <v>19</v>
       </c>
       <c r="I60" s="8"/>
@@ -3296,15 +3281,15 @@
         <v>45147</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E61" s="10"/>
       <c r="F61" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G61" s="8"/>
       <c r="H61" s="8" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
@@ -3336,15 +3321,15 @@
         <v>45148</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E62" s="10"/>
-      <c r="F62" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8" t="s">
-        <v>39</v>
+      <c r="F62" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
@@ -3376,11 +3361,11 @@
         <v>45149</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E63" s="10"/>
-      <c r="F63" s="10" t="s">
-        <v>96</v>
+      <c r="F63" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="G63" s="8"/>
       <c r="H63" s="8" t="s">
@@ -3484,11 +3469,11 @@
         <v>45152</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E66" s="10"/>
       <c r="F66" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G66" s="8"/>
       <c r="H66" s="8" t="s">
@@ -3524,14 +3509,14 @@
         <v>45153</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E67" s="10"/>
       <c r="F67" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8" t="s">
         <v>39</v>
       </c>
       <c r="I67" s="8"/>
@@ -3564,11 +3549,11 @@
         <v>45154</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G68" s="8"/>
       <c r="H68" s="8" t="s">
@@ -3604,14 +3589,14 @@
         <v>45155</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10" t="s">
         <v>39</v>
       </c>
       <c r="I69" s="8"/>
@@ -3644,11 +3629,11 @@
         <v>45156</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E70" s="10"/>
-      <c r="F70" s="8" t="s">
-        <v>97</v>
+      <c r="F70" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="G70" s="8"/>
       <c r="H70" s="8" t="s">
@@ -3752,11 +3737,11 @@
         <v>45159</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E73" s="10"/>
-      <c r="F73" s="8" t="s">
-        <v>97</v>
+      <c r="F73" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="G73" s="8"/>
       <c r="H73" s="8" t="s">
@@ -3792,14 +3777,14 @@
         <v>45160</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E74" s="10"/>
       <c r="F74" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8" t="s">
         <v>39</v>
       </c>
       <c r="I74" s="8"/>
@@ -3832,11 +3817,11 @@
         <v>45161</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E75" s="10"/>
       <c r="F75" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G75" s="8"/>
       <c r="H75" s="8" t="s">
@@ -3872,14 +3857,14 @@
         <v>45162</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E76" s="10"/>
-      <c r="F76" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8" t="s">
+      <c r="F76" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10" t="s">
         <v>39</v>
       </c>
       <c r="I76" s="8"/>
@@ -3912,11 +3897,11 @@
         <v>45163</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E77" s="10"/>
       <c r="F77" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G77" s="8"/>
       <c r="H77" s="8" t="s">
@@ -4020,11 +4005,11 @@
         <v>45166</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E80" s="10"/>
-      <c r="F80" s="8" t="s">
-        <v>100</v>
+      <c r="F80" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="G80" s="8"/>
       <c r="H80" s="8" t="s">
@@ -4060,14 +4045,14 @@
         <v>45167</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E81" s="10"/>
       <c r="F81" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G81" s="10"/>
-      <c r="H81" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8" t="s">
         <v>39</v>
       </c>
       <c r="I81" s="8"/>
@@ -4100,15 +4085,15 @@
         <v>45168</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E82" s="10"/>
       <c r="F82" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G82" s="8"/>
       <c r="H82" s="8" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
@@ -4140,15 +4125,15 @@
         <v>45169</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E83" s="10"/>
       <c r="F83" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8" t="s">
-        <v>27</v>
+        <v>99</v>
+      </c>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
@@ -4180,11 +4165,11 @@
         <v>45170</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E84" s="10"/>
       <c r="F84" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G84" s="8"/>
       <c r="H84" s="8" t="s">
@@ -4288,10 +4273,12 @@
         <v>45173</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E87" s="10"/>
-      <c r="F87" s="8"/>
+      <c r="F87" s="8" t="s">
+        <v>99</v>
+      </c>
       <c r="G87" s="8"/>
       <c r="H87" s="8" t="s">
         <v>27</v>
@@ -4326,12 +4313,14 @@
         <v>45174</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="10" t="s">
+      <c r="F88" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8" t="s">
         <v>27</v>
       </c>
       <c r="I88" s="8"/>
@@ -4364,13 +4353,13 @@
         <v>45175</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E89" s="10"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c r="H89" s="8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
@@ -4402,13 +4391,13 @@
         <v>45176</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E90" s="10"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8" t="s">
-        <v>21</v>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
@@ -4440,7 +4429,7 @@
         <v>45177</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E91" s="10"/>
       <c r="F91" s="8"/>
@@ -4546,7 +4535,7 @@
         <v>45180</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E94" s="10"/>
       <c r="F94" s="8"/>
@@ -4584,12 +4573,12 @@
         <v>45181</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="10" t="s">
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I95" s="8"/>
@@ -4622,7 +4611,7 @@
         <v>45182</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E96" s="10"/>
       <c r="F96" s="8"/>
@@ -4660,12 +4649,12 @@
         <v>45183</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E97" s="10"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8" t="s">
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10" t="s">
         <v>21</v>
       </c>
       <c r="I97" s="8"/>
@@ -4698,7 +4687,7 @@
         <v>45184</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E98" s="10"/>
       <c r="F98" s="8"/>
@@ -4804,7 +4793,7 @@
         <v>45187</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E101" s="10"/>
       <c r="F101" s="8"/>
@@ -4842,12 +4831,12 @@
         <v>45188</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10"/>
-      <c r="H102" s="10" t="s">
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I102" s="8"/>
@@ -4880,7 +4869,7 @@
         <v>45189</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E103" s="10"/>
       <c r="F103" s="8"/>
@@ -4918,12 +4907,12 @@
         <v>45190</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E104" s="10"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="8" t="s">
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="10" t="s">
         <v>21</v>
       </c>
       <c r="I104" s="8"/>
@@ -4956,7 +4945,7 @@
         <v>45191</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E105" s="10"/>
       <c r="F105" s="8"/>
@@ -5062,7 +5051,7 @@
         <v>45194</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E108" s="10"/>
       <c r="F108" s="8"/>
@@ -5100,12 +5089,12 @@
         <v>45195</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
-      <c r="G109" s="10"/>
-      <c r="H109" s="10" t="s">
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I109" s="8"/>
@@ -5138,13 +5127,13 @@
         <v>45196</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E110" s="10"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c r="H110" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
@@ -5176,13 +5165,13 @@
         <v>45197</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E111" s="10"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8" t="s">
-        <v>22</v>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
@@ -5214,7 +5203,7 @@
         <v>45198</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E112" s="10"/>
       <c r="F112" s="8"/>
@@ -5320,7 +5309,7 @@
         <v>45201</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E115" s="10"/>
       <c r="F115" s="8"/>
@@ -5358,12 +5347,12 @@
         <v>45202</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E116" s="10"/>
-      <c r="F116" s="10"/>
-      <c r="G116" s="10"/>
-      <c r="H116" s="10" t="s">
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="8" t="s">
         <v>22</v>
       </c>
       <c r="I116" s="8"/>
@@ -5396,7 +5385,7 @@
         <v>45203</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E117" s="10"/>
       <c r="F117" s="8"/>
@@ -5434,12 +5423,12 @@
         <v>45204</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E118" s="10"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="8" t="s">
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I118" s="8"/>
@@ -5472,7 +5461,7 @@
         <v>45205</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E119" s="10"/>
       <c r="F119" s="8"/>
@@ -5578,13 +5567,13 @@
         <v>45208</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E122" s="10"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c r="H122" s="8" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
@@ -5616,13 +5605,13 @@
         <v>45209</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E123" s="10"/>
-      <c r="F123" s="10"/>
-      <c r="G123" s="10"/>
-      <c r="H123" s="10" t="s">
-        <v>55</v>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
@@ -5654,9 +5643,9 @@
         <v>45210</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E124" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="E124" s="10"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c r="H124" s="8" t="s">
@@ -5692,12 +5681,12 @@
         <v>45211</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E125" s="8"/>
-      <c r="F125" s="8"/>
-      <c r="G125" s="8"/>
-      <c r="H125" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="10" t="s">
         <v>55</v>
       </c>
       <c r="I125" s="8"/>
@@ -5730,7 +5719,7 @@
         <v>45212</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
@@ -5836,7 +5825,7 @@
         <v>45215</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
@@ -5874,12 +5863,12 @@
         <v>45216</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E130" s="10"/>
-      <c r="F130" s="10"/>
-      <c r="G130" s="10"/>
-      <c r="H130" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c r="H130" s="8" t="s">
         <v>55</v>
       </c>
       <c r="I130" s="10"/>
@@ -5912,11 +5901,11 @@
         <v>45217</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E131" s="10"/>
-      <c r="F131" s="10"/>
-      <c r="G131" s="10"/>
+        <v>78</v>
+      </c>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
       <c r="H131" s="8" t="s">
         <v>55</v>
       </c>
@@ -5950,13 +5939,13 @@
         <v>45218</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E132" s="10"/>
       <c r="F132" s="10"/>
       <c r="G132" s="10"/>
       <c r="H132" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I132" s="10"/>
       <c r="J132" s="10"/>
@@ -5988,12 +5977,14 @@
         <v>45219</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E133" s="10"/>
       <c r="F133" s="10"/>
       <c r="G133" s="10"/>
-      <c r="H133" s="10"/>
+      <c r="H133" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="I133" s="10"/>
       <c r="J133" s="10"/>
       <c r="K133" s="10"/>
@@ -6092,7 +6083,7 @@
         <v>45222</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E136" s="10"/>
       <c r="F136" s="10"/>
@@ -6128,7 +6119,7 @@
         <v>45223</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E137" s="10"/>
       <c r="F137" s="10"/>
@@ -6164,7 +6155,7 @@
         <v>45224</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E138" s="10"/>
       <c r="F138" s="10"/>
@@ -6200,7 +6191,7 @@
         <v>45225</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E139" s="10"/>
       <c r="F139" s="10"/>
@@ -6236,7 +6227,7 @@
         <v>45226</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E140" s="10"/>
       <c r="F140" s="10"/>
@@ -6261,67 +6252,87 @@
       <c r="Y140" s="10"/>
       <c r="Z140" s="10"/>
     </row>
-    <row r="141" spans="1:26" s="14" customFormat="1">
-      <c r="A141" s="10"/>
-      <c r="B141" s="10"/>
-      <c r="C141" s="10"/>
-      <c r="D141" s="10"/>
-      <c r="E141" s="10"/>
-      <c r="F141" s="10"/>
-      <c r="G141" s="10"/>
-      <c r="H141" s="10"/>
-      <c r="I141" s="10"/>
-      <c r="J141" s="10"/>
-      <c r="K141" s="10"/>
-      <c r="L141" s="10"/>
-      <c r="M141" s="10"/>
-      <c r="N141" s="10"/>
-      <c r="O141" s="10"/>
-      <c r="P141" s="10"/>
-      <c r="Q141" s="10"/>
-      <c r="R141" s="10"/>
-      <c r="S141" s="10"/>
-      <c r="T141" s="10"/>
-      <c r="U141" s="10"/>
-      <c r="V141" s="10"/>
-      <c r="W141" s="10"/>
-      <c r="X141" s="10"/>
-      <c r="Y141" s="10"/>
-      <c r="Z141" s="10"/>
-    </row>
-    <row r="142" spans="1:26" s="14" customFormat="1">
-      <c r="A142" s="10"/>
-      <c r="B142" s="10"/>
-      <c r="C142" s="10"/>
-      <c r="D142" s="10"/>
-      <c r="E142" s="10"/>
-      <c r="F142" s="10"/>
-      <c r="G142" s="10"/>
-      <c r="H142" s="10"/>
-      <c r="I142" s="10"/>
-      <c r="J142" s="10"/>
-      <c r="K142" s="10"/>
-      <c r="L142" s="10"/>
-      <c r="M142" s="10"/>
-      <c r="N142" s="10"/>
-      <c r="O142" s="10"/>
-      <c r="P142" s="10"/>
-      <c r="Q142" s="10"/>
-      <c r="R142" s="10"/>
-      <c r="S142" s="10"/>
-      <c r="T142" s="10"/>
-      <c r="U142" s="10"/>
-      <c r="V142" s="10"/>
-      <c r="W142" s="10"/>
-      <c r="X142" s="10"/>
-      <c r="Y142" s="10"/>
-      <c r="Z142" s="10"/>
+    <row r="141" spans="1:26" s="6" customFormat="1">
+      <c r="A141" s="12">
+        <v>140</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" s="13">
+        <v>45227</v>
+      </c>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12"/>
+      <c r="F141" s="12"/>
+      <c r="G141" s="12"/>
+      <c r="H141" s="12"/>
+      <c r="I141" s="12"/>
+      <c r="J141" s="12"/>
+      <c r="K141" s="12"/>
+      <c r="L141" s="16"/>
+      <c r="M141" s="12"/>
+      <c r="N141" s="12"/>
+      <c r="O141" s="12"/>
+      <c r="P141" s="12"/>
+      <c r="Q141" s="12"/>
+      <c r="R141" s="12"/>
+      <c r="S141" s="12"/>
+      <c r="T141" s="12"/>
+      <c r="U141" s="12"/>
+      <c r="V141" s="12"/>
+      <c r="W141" s="12"/>
+      <c r="X141" s="12"/>
+      <c r="Y141" s="12"/>
+      <c r="Z141" s="12"/>
+    </row>
+    <row r="142" spans="1:26" s="6" customFormat="1">
+      <c r="A142" s="12">
+        <v>141</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142" s="13">
+        <v>45228</v>
+      </c>
+      <c r="D142" s="12"/>
+      <c r="E142" s="12"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="12"/>
+      <c r="H142" s="12"/>
+      <c r="I142" s="12"/>
+      <c r="J142" s="12"/>
+      <c r="K142" s="12"/>
+      <c r="L142" s="16"/>
+      <c r="M142" s="12"/>
+      <c r="N142" s="12"/>
+      <c r="O142" s="12"/>
+      <c r="P142" s="12"/>
+      <c r="Q142" s="12"/>
+      <c r="R142" s="12"/>
+      <c r="S142" s="12"/>
+      <c r="T142" s="12"/>
+      <c r="U142" s="12"/>
+      <c r="V142" s="12"/>
+      <c r="W142" s="12"/>
+      <c r="X142" s="12"/>
+      <c r="Y142" s="12"/>
+      <c r="Z142" s="12"/>
     </row>
     <row r="143" spans="1:26" s="14" customFormat="1">
-      <c r="A143" s="10"/>
-      <c r="B143" s="10"/>
-      <c r="C143" s="10"/>
-      <c r="D143" s="10"/>
+      <c r="A143" s="8">
+        <v>142</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" s="11">
+        <v>45229</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="E143" s="10"/>
       <c r="F143" s="10"/>
       <c r="G143" s="10"/>
@@ -6346,10 +6357,18 @@
       <c r="Z143" s="10"/>
     </row>
     <row r="144" spans="1:26" s="14" customFormat="1">
-      <c r="A144" s="10"/>
-      <c r="B144" s="10"/>
-      <c r="C144" s="10"/>
-      <c r="D144" s="10"/>
+      <c r="A144" s="10">
+        <v>143</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144" s="11">
+        <v>45230</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="E144" s="10"/>
       <c r="F144" s="10"/>
       <c r="G144" s="10"/>

--- a/rmfd23.xlsx
+++ b/rmfd23.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sirigirs\Desktop\DLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4B1ADF-F5B2-49AA-89B5-9A59DEF03F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BF6C69-547F-4500-8816-B9E1EF079047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="600" windowWidth="19180" windowHeight="10200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="rdmp" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">rdmp!$B$1:$B$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">rdmp!$B$1:$B$106</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="100">
   <si>
     <t>S.NO</t>
   </si>
@@ -205,22 +205,7 @@
     <t>10:30 - 11:30</t>
   </si>
   <si>
-    <t>java</t>
-  </si>
-  <si>
-    <t>python</t>
-  </si>
-  <si>
-    <t>11-class - completed</t>
-  </si>
-  <si>
-    <t>4-setup in linux, installation pending</t>
-  </si>
-  <si>
     <t>13-Arrays</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
   <si>
     <t>2 -class,objects &amp; methods</t>
@@ -334,7 +319,16 @@
     <t>23&amp;24 - Wndws &amp; R-API</t>
   </si>
   <si>
-    <t>s</t>
+    <t>DOCKER-03-32:10</t>
+  </si>
+  <si>
+    <t>cloud setup</t>
+  </si>
+  <si>
+    <t>atom issue</t>
+  </si>
+  <si>
+    <t>14 - Methods</t>
   </si>
 </sst>
 </file>
@@ -465,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -487,6 +481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -770,22 +765,22 @@
   <dimension ref="B1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="40.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="1" spans="2:3" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="B1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="15" thickBot="1">
+    <row r="2" spans="2:3" ht="15.75" thickBot="1">
       <c r="B2" s="2" t="s">
         <v>46</v>
       </c>
@@ -793,7 +788,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="15" thickBot="1">
+    <row r="3" spans="2:3" ht="15.75" thickBot="1">
       <c r="B3" s="2" t="s">
         <v>45</v>
       </c>
@@ -801,8 +796,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="15" thickBot="1"/>
-    <row r="7" spans="2:3" ht="15" thickBot="1">
+    <row r="6" spans="2:3" ht="15.75" thickBot="1"/>
+    <row r="7" spans="2:3" ht="15.75" thickBot="1">
       <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
@@ -974,22 +969,23 @@
   <dimension ref="A1:Z301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D140" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D149" sqref="D149"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="5" customFormat="1">
@@ -1003,7 +999,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>47</v>
@@ -1041,21 +1037,15 @@
       <c r="Z1" s="7"/>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="13">
-        <v>45088</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>65</v>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
-        <v>66</v>
+      <c r="F2" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -1080,31 +1070,35 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" s="9">
-        <v>45089</v>
+        <v>45112</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>60</v>
-      </c>
       <c r="F3" s="8" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>96</v>
+      </c>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
@@ -1124,25 +1118,27 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" s="9">
-        <v>45090</v>
+        <v>45113</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -1163,24 +1159,26 @@
       <c r="Z4" s="8"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="9">
-        <v>45091</v>
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="11">
+        <v>45114</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -1202,23 +1200,21 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="9">
-        <v>45092</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="13">
+        <v>45115</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
@@ -1237,22 +1233,22 @@
       <c r="Z6" s="8"/>
     </row>
     <row r="7" spans="1:26" s="14" customFormat="1">
-      <c r="A7" s="10">
-        <v>6</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="11">
-        <v>45093</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="13">
+        <v>45116</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
@@ -1271,22 +1267,28 @@
       <c r="Z7" s="10"/>
     </row>
     <row r="8" spans="1:26" s="6" customFormat="1">
-      <c r="A8" s="12">
-        <v>7</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="13">
-        <v>45094</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="9">
+        <v>45117</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
       <c r="K8" s="12"/>
       <c r="L8" s="16"/>
       <c r="M8" s="12"/>
@@ -1305,22 +1307,28 @@
       <c r="Z8" s="12"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="12">
-        <v>8</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="13">
-        <v>45095</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="9">
+        <v>45118</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
       <c r="K9" s="12"/>
       <c r="L9" s="8"/>
       <c r="M9" s="12"/>
@@ -1340,19 +1348,25 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10" s="9">
-        <v>45096</v>
-      </c>
-      <c r="D10" s="8"/>
+        <v>45119</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="H10" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -1373,20 +1387,26 @@
       <c r="Z10" s="8"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="8">
-        <v>10</v>
+      <c r="A11" s="10">
+        <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11" s="9">
-        <v>45097</v>
-      </c>
-      <c r="D11" s="8"/>
+        <v>45120</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="F11" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="H11" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -1408,21 +1428,27 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="8">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="9">
-        <v>45098</v>
-      </c>
-      <c r="D12" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="15">
+        <v>45121</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="F12" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="H12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
@@ -1442,21 +1468,21 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="8">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="9">
-        <v>45099</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="13">
+        <v>45122</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
@@ -1476,27 +1502,21 @@
     </row>
     <row r="14" spans="1:26" s="14" customFormat="1">
       <c r="A14" s="10">
-        <v>13</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="11">
-        <v>45100</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="13">
+        <v>45123</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
@@ -1514,86 +1534,98 @@
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
     </row>
-    <row r="15" spans="1:26" s="6" customFormat="1">
-      <c r="A15" s="12">
+    <row r="15" spans="1:26" s="14" customFormat="1">
+      <c r="A15" s="8">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="9">
+        <v>45124</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+    </row>
+    <row r="16" spans="1:26" s="14" customFormat="1">
+      <c r="A16" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="13">
-        <v>45101</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-    </row>
-    <row r="16" spans="1:26">
-      <c r="A16" s="12">
+      <c r="B16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="9">
+        <v>45125</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" s="10">
         <v>15</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="15">
-        <v>45102</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-    </row>
-    <row r="17" spans="1:26">
-      <c r="A17" s="8">
-        <v>16</v>
-      </c>
       <c r="B17" s="8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C17" s="9">
-        <v>45103</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>64</v>
+        <v>45126</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8" t="s">
@@ -1601,7 +1633,7 @@
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -1624,24 +1656,24 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C18" s="9">
-        <v>45104</v>
-      </c>
-      <c r="D18" s="8" t="s">
+        <v>45127</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>64</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -1664,27 +1696,27 @@
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="8">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="9">
-        <v>45105</v>
-      </c>
-      <c r="D19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="11">
+        <v>45128</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>64</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
@@ -1703,28 +1735,22 @@
       <c r="Z19" s="8"/>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="8">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="9">
-        <v>45106</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
+      <c r="A20" s="10">
+        <v>18</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="13">
+        <v>45129</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
@@ -1743,28 +1769,22 @@
       <c r="Z20" s="8"/>
     </row>
     <row r="21" spans="1:26" s="14" customFormat="1">
-      <c r="A21" s="10">
-        <v>20</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="11">
-        <v>45107</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
+      <c r="A21" s="8">
+        <v>19</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="13">
+        <v>45130</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
@@ -1782,94 +1802,106 @@
       <c r="Y21" s="10"/>
       <c r="Z21" s="10"/>
     </row>
-    <row r="22" spans="1:26" s="6" customFormat="1">
-      <c r="A22" s="12">
+    <row r="22" spans="1:26" s="14" customFormat="1">
+      <c r="A22" s="8">
+        <v>20</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="9">
+        <v>45131</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+    </row>
+    <row r="23" spans="1:26" s="14" customFormat="1">
+      <c r="A23" s="10">
         <v>21</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="13">
-        <v>45108</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-    </row>
-    <row r="23" spans="1:26">
-      <c r="A23" s="12">
-        <v>22</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="13">
-        <v>45109</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
+      <c r="B23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="9">
+        <v>45132</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
     </row>
     <row r="24" spans="1:26">
       <c r="A24" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C24" s="9">
-        <v>45110</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>68</v>
+        <v>45133</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="E24" s="8"/>
-      <c r="F24" s="10" t="s">
-        <v>82</v>
+      <c r="F24" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="G24" s="8"/>
-      <c r="H24" s="10" t="s">
-        <v>49</v>
+      <c r="H24" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
@@ -1892,24 +1924,24 @@
     </row>
     <row r="25" spans="1:26">
       <c r="A25" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C25" s="9">
-        <v>45111</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>68</v>
+        <v>45134</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="10" t="s">
         <v>82</v>
       </c>
       <c r="G25" s="8"/>
-      <c r="H25" s="10" t="s">
-        <v>49</v>
+      <c r="H25" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -1931,28 +1963,28 @@
       <c r="Z25" s="8"/>
     </row>
     <row r="26" spans="1:26">
-      <c r="A26" s="8">
-        <v>25</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="9">
-        <v>45112</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>68</v>
+      <c r="A26" s="10">
+        <v>24</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="15">
+        <v>45135</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="E26" s="8"/>
-      <c r="F26" s="8" t="s">
-        <v>83</v>
+      <c r="F26" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
@@ -1972,27 +2004,21 @@
     </row>
     <row r="27" spans="1:26">
       <c r="A27" s="8">
-        <v>26</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="9">
-        <v>45113</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="13">
+        <v>45136</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
@@ -2011,28 +2037,22 @@
       <c r="Z27" s="8"/>
     </row>
     <row r="28" spans="1:26" s="14" customFormat="1">
-      <c r="A28" s="10">
-        <v>27</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="11">
-        <v>45114</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
+      <c r="A28" s="8">
+        <v>26</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="13">
+        <v>45137</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
@@ -2051,22 +2071,28 @@
       <c r="Z28" s="10"/>
     </row>
     <row r="29" spans="1:26" s="6" customFormat="1">
-      <c r="A29" s="12">
-        <v>28</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="13">
-        <v>45115</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
+      <c r="A29" s="10">
+        <v>27</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="9">
+        <v>45138</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
       <c r="K29" s="12"/>
       <c r="L29" s="16"/>
       <c r="M29" s="12"/>
@@ -2085,22 +2111,28 @@
       <c r="Z29" s="12"/>
     </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="12">
-        <v>29</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="13">
-        <v>45116</v>
-      </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
+      <c r="A30" s="8">
+        <v>28</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="9">
+        <v>45139</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
       <c r="K30" s="12"/>
       <c r="L30" s="8"/>
       <c r="M30" s="12"/>
@@ -2120,24 +2152,24 @@
     </row>
     <row r="31" spans="1:26">
       <c r="A31" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C31" s="9">
-        <v>45117</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="8"/>
+        <v>45140</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="10"/>
       <c r="F31" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G31" s="8"/>
-      <c r="H31" s="8" t="s">
-        <v>49</v>
+      <c r="H31" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
@@ -2159,25 +2191,25 @@
       <c r="Z31" s="8"/>
     </row>
     <row r="32" spans="1:26">
-      <c r="A32" s="8">
-        <v>31</v>
+      <c r="A32" s="10">
+        <v>30</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C32" s="9">
-        <v>45118</v>
+        <v>45141</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="8"/>
+        <v>66</v>
+      </c>
+      <c r="E32" s="10"/>
       <c r="F32" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G32" s="8"/>
-      <c r="H32" s="8" t="s">
-        <v>49</v>
+      <c r="H32" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
@@ -2200,27 +2232,27 @@
     </row>
     <row r="33" spans="1:26">
       <c r="A33" s="8">
-        <v>32</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="9">
-        <v>45119</v>
+        <v>31</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="11">
+        <v>45142</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" s="8"/>
+        <v>66</v>
+      </c>
+      <c r="E33" s="10"/>
       <c r="F33" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G33" s="8"/>
-      <c r="H33" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
+      <c r="H33" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
@@ -2240,27 +2272,21 @@
     </row>
     <row r="34" spans="1:26">
       <c r="A34" s="8">
-        <v>33</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="9">
-        <v>45120</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="13">
+        <v>45143</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
@@ -2280,27 +2306,21 @@
     </row>
     <row r="35" spans="1:26" s="14" customFormat="1">
       <c r="A35" s="10">
-        <v>34</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="15">
-        <v>45121</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="13">
+        <v>45144</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
@@ -2319,22 +2339,28 @@
       <c r="Z35" s="10"/>
     </row>
     <row r="36" spans="1:26" s="6" customFormat="1">
-      <c r="A36" s="12">
-        <v>35</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="13">
-        <v>45122</v>
-      </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
+      <c r="A36" s="8">
+        <v>34</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="9">
+        <v>45145</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
       <c r="K36" s="12"/>
       <c r="L36" s="16"/>
       <c r="M36" s="12"/>
@@ -2353,22 +2379,28 @@
       <c r="Z36" s="12"/>
     </row>
     <row r="37" spans="1:26">
-      <c r="A37" s="12">
-        <v>36</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="13">
-        <v>45123</v>
-      </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
+      <c r="A37" s="8">
+        <v>35</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="9">
+        <v>45146</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
       <c r="K37" s="12"/>
       <c r="L37" s="8"/>
       <c r="M37" s="12"/>
@@ -2387,25 +2419,25 @@
       <c r="Z37" s="12"/>
     </row>
     <row r="38" spans="1:26">
-      <c r="A38" s="8">
-        <v>37</v>
+      <c r="A38" s="10">
+        <v>36</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C38" s="9">
-        <v>45124</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="10" t="s">
-        <v>87</v>
+        <v>45147</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
@@ -2428,24 +2460,24 @@
     </row>
     <row r="39" spans="1:26">
       <c r="A39" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C39" s="9">
-        <v>45125</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="8"/>
+        <v>45148</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="10"/>
       <c r="F39" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G39" s="8"/>
       <c r="H39" s="8" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
@@ -2468,27 +2500,27 @@
     </row>
     <row r="40" spans="1:26">
       <c r="A40" s="8">
-        <v>39</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="9">
-        <v>45126</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="10" t="s">
-        <v>87</v>
+        <v>38</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="11">
+        <v>45149</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="G40" s="8"/>
       <c r="H40" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
@@ -2507,28 +2539,22 @@
       <c r="Z40" s="8"/>
     </row>
     <row r="41" spans="1:26">
-      <c r="A41" s="8">
-        <v>40</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="9">
-        <v>45127</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
+      <c r="A41" s="10">
+        <v>39</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="13">
+        <v>45150</v>
+      </c>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
@@ -2547,28 +2573,22 @@
       <c r="Z41" s="8"/>
     </row>
     <row r="42" spans="1:26" s="14" customFormat="1">
-      <c r="A42" s="10">
-        <v>41</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="11">
-        <v>45128</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G42" s="8"/>
-      <c r="H42" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
+      <c r="A42" s="8">
+        <v>40</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="13">
+        <v>45151</v>
+      </c>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
       <c r="K42" s="10"/>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
@@ -2587,22 +2607,28 @@
       <c r="Z42" s="10"/>
     </row>
     <row r="43" spans="1:26" s="6" customFormat="1">
-      <c r="A43" s="12">
-        <v>42</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="13">
-        <v>45129</v>
-      </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
+      <c r="A43" s="8">
+        <v>41</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="9">
+        <v>45152</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
       <c r="K43" s="12"/>
       <c r="L43" s="16"/>
       <c r="M43" s="12"/>
@@ -2621,22 +2647,28 @@
       <c r="Z43" s="12"/>
     </row>
     <row r="44" spans="1:26">
-      <c r="A44" s="12">
-        <v>43</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="13">
-        <v>45130</v>
-      </c>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
+      <c r="A44" s="10">
+        <v>42</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="9">
+        <v>45153</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
       <c r="K44" s="12"/>
       <c r="L44" s="8"/>
       <c r="M44" s="12"/>
@@ -2656,24 +2688,24 @@
     </row>
     <row r="45" spans="1:26">
       <c r="A45" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C45" s="9">
-        <v>45131</v>
+        <v>45154</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G45" s="8"/>
-      <c r="H45" s="10" t="s">
-        <v>53</v>
+      <c r="H45" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
@@ -2696,24 +2728,24 @@
     </row>
     <row r="46" spans="1:26">
       <c r="A46" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C46" s="9">
-        <v>45132</v>
+        <v>45155</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E46" s="10"/>
-      <c r="F46" s="8" t="s">
-        <v>88</v>
+      <c r="F46" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="8" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
@@ -2735,28 +2767,28 @@
       <c r="Z46" s="8"/>
     </row>
     <row r="47" spans="1:26">
-      <c r="A47" s="8">
-        <v>46</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="9">
-        <v>45133</v>
+      <c r="A47" s="10">
+        <v>45</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="11">
+        <v>45156</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E47" s="10"/>
-      <c r="F47" s="8" t="s">
-        <v>88</v>
+      <c r="F47" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="G47" s="8"/>
       <c r="H47" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
@@ -2776,27 +2808,21 @@
     </row>
     <row r="48" spans="1:26">
       <c r="A48" s="8">
-        <v>47</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="9">
-        <v>45134</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="13">
+        <v>45157</v>
+      </c>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
@@ -2815,28 +2841,22 @@
       <c r="Z48" s="8"/>
     </row>
     <row r="49" spans="1:26" s="14" customFormat="1">
-      <c r="A49" s="10">
-        <v>48</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="15">
-        <v>45135</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
+      <c r="A49" s="8">
+        <v>47</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="13">
+        <v>45158</v>
+      </c>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
@@ -2855,22 +2875,28 @@
       <c r="Z49" s="10"/>
     </row>
     <row r="50" spans="1:26" s="6" customFormat="1">
-      <c r="A50" s="12">
-        <v>49</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="13">
-        <v>45136</v>
-      </c>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
+      <c r="A50" s="10">
+        <v>48</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="9">
+        <v>45159</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" s="10"/>
+      <c r="F50" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
       <c r="K50" s="12"/>
       <c r="L50" s="16"/>
       <c r="M50" s="12"/>
@@ -2889,22 +2915,28 @@
       <c r="Z50" s="12"/>
     </row>
     <row r="51" spans="1:26">
-      <c r="A51" s="12">
-        <v>50</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="13">
-        <v>45137</v>
-      </c>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
+      <c r="A51" s="8">
+        <v>49</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="9">
+        <v>45160</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E51" s="10"/>
+      <c r="F51" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
       <c r="K51" s="12"/>
       <c r="L51" s="8"/>
       <c r="M51" s="12"/>
@@ -2924,24 +2956,24 @@
     </row>
     <row r="52" spans="1:26">
       <c r="A52" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C52" s="9">
-        <v>45138</v>
+        <v>45161</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E52" s="10"/>
-      <c r="F52" s="10" t="s">
+      <c r="F52" s="8" t="s">
         <v>89</v>
       </c>
       <c r="G52" s="8"/>
       <c r="H52" s="8" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
@@ -2963,25 +2995,25 @@
       <c r="Z52" s="8"/>
     </row>
     <row r="53" spans="1:26">
-      <c r="A53" s="8">
-        <v>52</v>
+      <c r="A53" s="10">
+        <v>51</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C53" s="9">
-        <v>45139</v>
+        <v>45162</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E53" s="10"/>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="10" t="s">
         <v>90</v>
       </c>
       <c r="G53" s="8"/>
       <c r="H53" s="8" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
@@ -3004,27 +3036,27 @@
     </row>
     <row r="54" spans="1:26">
       <c r="A54" s="8">
-        <v>53</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" s="9">
-        <v>45140</v>
+        <v>52</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="11">
+        <v>45163</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E54" s="10"/>
-      <c r="F54" s="8" t="s">
+      <c r="F54" s="10" t="s">
         <v>90</v>
       </c>
       <c r="G54" s="8"/>
       <c r="H54" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
@@ -3044,27 +3076,21 @@
     </row>
     <row r="55" spans="1:26">
       <c r="A55" s="8">
-        <v>54</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="9">
-        <v>45141</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E55" s="10"/>
-      <c r="F55" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
+        <v>53</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="13">
+        <v>45164</v>
+      </c>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
       <c r="M55" s="8"/>
@@ -3084,27 +3110,21 @@
     </row>
     <row r="56" spans="1:26" s="14" customFormat="1">
       <c r="A56" s="10">
-        <v>55</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="11">
-        <v>45142</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E56" s="10"/>
-      <c r="F56" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="13">
+        <v>45165</v>
+      </c>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
       <c r="K56" s="10"/>
       <c r="L56" s="10"/>
       <c r="M56" s="10"/>
@@ -3123,22 +3143,28 @@
       <c r="Z56" s="10"/>
     </row>
     <row r="57" spans="1:26" s="6" customFormat="1">
-      <c r="A57" s="12">
-        <v>56</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="13">
-        <v>45143</v>
-      </c>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
+      <c r="A57" s="8">
+        <v>55</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="9">
+        <v>45166</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
       <c r="K57" s="12"/>
       <c r="L57" s="16"/>
       <c r="M57" s="12"/>
@@ -3157,22 +3183,28 @@
       <c r="Z57" s="12"/>
     </row>
     <row r="58" spans="1:26">
-      <c r="A58" s="12">
-        <v>57</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="13">
-        <v>45144</v>
-      </c>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
+      <c r="A58" s="8">
+        <v>56</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="9">
+        <v>45167</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
       <c r="K58" s="12"/>
       <c r="L58" s="8"/>
       <c r="M58" s="12"/>
@@ -3191,25 +3223,25 @@
       <c r="Z58" s="12"/>
     </row>
     <row r="59" spans="1:26">
-      <c r="A59" s="8">
-        <v>58</v>
+      <c r="A59" s="10">
+        <v>57</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C59" s="9">
-        <v>45145</v>
+        <v>45168</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G59" s="8"/>
       <c r="H59" s="8" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
@@ -3232,24 +3264,24 @@
     </row>
     <row r="60" spans="1:26">
       <c r="A60" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C60" s="9">
-        <v>45146</v>
+        <v>45169</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G60" s="8"/>
       <c r="H60" s="8" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
@@ -3272,27 +3304,27 @@
     </row>
     <row r="61" spans="1:26">
       <c r="A61" s="8">
-        <v>60</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" s="9">
-        <v>45147</v>
+        <v>59</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="11">
+        <v>45170</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E61" s="10"/>
       <c r="F61" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G61" s="8"/>
       <c r="H61" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
       <c r="K61" s="8"/>
       <c r="L61" s="8"/>
       <c r="M61" s="8"/>
@@ -3311,28 +3343,22 @@
       <c r="Z61" s="8"/>
     </row>
     <row r="62" spans="1:26">
-      <c r="A62" s="8">
-        <v>61</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="9">
-        <v>45148</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E62" s="10"/>
-      <c r="F62" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
+      <c r="A62" s="10">
+        <v>60</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="13">
+        <v>45171</v>
+      </c>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
       <c r="M62" s="8"/>
@@ -3351,28 +3377,22 @@
       <c r="Z62" s="8"/>
     </row>
     <row r="63" spans="1:26" s="14" customFormat="1">
-      <c r="A63" s="10">
-        <v>62</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="11">
-        <v>45149</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E63" s="10"/>
-      <c r="F63" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
+      <c r="A63" s="8">
+        <v>61</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="13">
+        <v>45172</v>
+      </c>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
       <c r="M63" s="10"/>
@@ -3391,22 +3411,28 @@
       <c r="Z63" s="10"/>
     </row>
     <row r="64" spans="1:26" s="6" customFormat="1">
-      <c r="A64" s="12">
-        <v>63</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="13">
-        <v>45150</v>
-      </c>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
+      <c r="A64" s="8">
+        <v>62</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="9">
+        <v>45173</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="10"/>
+      <c r="F64" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
       <c r="K64" s="12"/>
       <c r="L64" s="16"/>
       <c r="M64" s="12"/>
@@ -3425,22 +3451,28 @@
       <c r="Z64" s="12"/>
     </row>
     <row r="65" spans="1:26">
-      <c r="A65" s="12">
-        <v>64</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" s="13">
-        <v>45151</v>
-      </c>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="12"/>
+      <c r="A65" s="10">
+        <v>63</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="9">
+        <v>45174</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="10"/>
+      <c r="F65" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
       <c r="K65" s="12"/>
       <c r="L65" s="8"/>
       <c r="M65" s="12"/>
@@ -3460,20 +3492,20 @@
     </row>
     <row r="66" spans="1:26">
       <c r="A66" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C66" s="9">
-        <v>45152</v>
+        <v>45175</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E66" s="10"/>
-      <c r="F66" s="10" t="s">
-        <v>95</v>
+      <c r="F66" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="G66" s="8"/>
       <c r="H66" s="8" t="s">
@@ -3500,20 +3532,20 @@
     </row>
     <row r="67" spans="1:26">
       <c r="A67" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C67" s="9">
-        <v>45153</v>
+        <v>45176</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E67" s="10"/>
       <c r="F67" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G67" s="8"/>
       <c r="H67" s="8" t="s">
@@ -3539,28 +3571,28 @@
       <c r="Z67" s="8"/>
     </row>
     <row r="68" spans="1:26">
-      <c r="A68" s="8">
-        <v>67</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C68" s="9">
-        <v>45154</v>
+      <c r="A68" s="10">
+        <v>66</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="11">
+        <v>45177</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E68" s="10"/>
-      <c r="F68" s="10" t="s">
-        <v>95</v>
+      <c r="F68" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="G68" s="8"/>
       <c r="H68" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
       <c r="M68" s="8"/>
@@ -3580,27 +3612,21 @@
     </row>
     <row r="69" spans="1:26">
       <c r="A69" s="8">
-        <v>68</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" s="9">
-        <v>45155</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
+        <v>67</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="13">
+        <v>45178</v>
+      </c>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
       <c r="K69" s="8"/>
       <c r="L69" s="8"/>
       <c r="M69" s="8"/>
@@ -3619,28 +3645,22 @@
       <c r="Z69" s="8"/>
     </row>
     <row r="70" spans="1:26" s="14" customFormat="1">
-      <c r="A70" s="10">
-        <v>69</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" s="11">
-        <v>45156</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
+      <c r="A70" s="8">
+        <v>68</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="13">
+        <v>45179</v>
+      </c>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
       <c r="K70" s="10"/>
       <c r="L70" s="10"/>
       <c r="M70" s="10"/>
@@ -3659,22 +3679,28 @@
       <c r="Z70" s="10"/>
     </row>
     <row r="71" spans="1:26" s="6" customFormat="1">
-      <c r="A71" s="12">
-        <v>70</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" s="13">
-        <v>45157</v>
-      </c>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
+      <c r="A71" s="10">
+        <v>69</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="9">
+        <v>45180</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="10"/>
+      <c r="F71" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
       <c r="K71" s="12"/>
       <c r="L71" s="16"/>
       <c r="M71" s="12"/>
@@ -3693,22 +3719,28 @@
       <c r="Z71" s="12"/>
     </row>
     <row r="72" spans="1:26">
-      <c r="A72" s="12">
-        <v>71</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C72" s="13">
-        <v>45158</v>
-      </c>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
+      <c r="A72" s="8">
+        <v>70</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="9">
+        <v>45181</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E72" s="10"/>
+      <c r="F72" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
       <c r="K72" s="12"/>
       <c r="L72" s="8"/>
       <c r="M72" s="12"/>
@@ -3728,24 +3760,24 @@
     </row>
     <row r="73" spans="1:26">
       <c r="A73" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C73" s="9">
-        <v>45159</v>
+        <v>45182</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E73" s="10"/>
-      <c r="F73" s="10" t="s">
-        <v>95</v>
+      <c r="F73" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="G73" s="8"/>
       <c r="H73" s="8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
@@ -3767,25 +3799,25 @@
       <c r="Z73" s="8"/>
     </row>
     <row r="74" spans="1:26">
-      <c r="A74" s="8">
-        <v>73</v>
+      <c r="A74" s="10">
+        <v>72</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C74" s="9">
-        <v>45160</v>
+        <v>45183</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E74" s="10"/>
       <c r="F74" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G74" s="8"/>
       <c r="H74" s="8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
@@ -3808,27 +3840,27 @@
     </row>
     <row r="75" spans="1:26">
       <c r="A75" s="8">
-        <v>74</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" s="9">
-        <v>45161</v>
+        <v>73</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="11">
+        <v>45184</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E75" s="10"/>
       <c r="F75" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G75" s="8"/>
       <c r="H75" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
       <c r="K75" s="8"/>
       <c r="L75" s="8"/>
       <c r="M75" s="8"/>
@@ -3848,27 +3880,21 @@
     </row>
     <row r="76" spans="1:26">
       <c r="A76" s="8">
-        <v>75</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76" s="9">
-        <v>45162</v>
-      </c>
-      <c r="D76" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E76" s="10"/>
-      <c r="F76" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
+      <c r="B76" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="13">
+        <v>45185</v>
+      </c>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
       <c r="K76" s="8"/>
       <c r="L76" s="8"/>
       <c r="M76" s="8"/>
@@ -3888,27 +3914,21 @@
     </row>
     <row r="77" spans="1:26" s="14" customFormat="1">
       <c r="A77" s="10">
-        <v>76</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" s="11">
-        <v>45163</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E77" s="10"/>
-      <c r="F77" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I77" s="10"/>
-      <c r="J77" s="10"/>
+        <v>75</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="13">
+        <v>45186</v>
+      </c>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
       <c r="K77" s="10"/>
       <c r="L77" s="10"/>
       <c r="M77" s="10"/>
@@ -3927,22 +3947,26 @@
       <c r="Z77" s="10"/>
     </row>
     <row r="78" spans="1:26" s="6" customFormat="1">
-      <c r="A78" s="12">
-        <v>77</v>
-      </c>
-      <c r="B78" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" s="13">
-        <v>45164</v>
-      </c>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
+      <c r="A78" s="8">
+        <v>76</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="9">
+        <v>45187</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E78" s="10"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
       <c r="K78" s="12"/>
       <c r="L78" s="16"/>
       <c r="M78" s="12"/>
@@ -3961,22 +3985,26 @@
       <c r="Z78" s="12"/>
     </row>
     <row r="79" spans="1:26">
-      <c r="A79" s="12">
-        <v>78</v>
-      </c>
-      <c r="B79" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" s="13">
-        <v>45165</v>
-      </c>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="12"/>
+      <c r="A79" s="8">
+        <v>77</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="9">
+        <v>45188</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
       <c r="K79" s="12"/>
       <c r="L79" s="8"/>
       <c r="M79" s="12"/>
@@ -3995,25 +4023,23 @@
       <c r="Z79" s="12"/>
     </row>
     <row r="80" spans="1:26">
-      <c r="A80" s="8">
-        <v>79</v>
+      <c r="A80" s="10">
+        <v>78</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C80" s="9">
-        <v>45166</v>
+        <v>45189</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E80" s="10"/>
-      <c r="F80" s="10" t="s">
-        <v>97</v>
-      </c>
+      <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c r="H80" s="8" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
@@ -4036,24 +4062,22 @@
     </row>
     <row r="81" spans="1:26">
       <c r="A81" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C81" s="9">
-        <v>45167</v>
+        <v>45190</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E81" s="10"/>
-      <c r="F81" s="8" t="s">
-        <v>98</v>
-      </c>
+      <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c r="H81" s="8" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
@@ -4076,27 +4100,25 @@
     </row>
     <row r="82" spans="1:26">
       <c r="A82" s="8">
-        <v>81</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82" s="9">
-        <v>45168</v>
+        <v>80</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="11">
+        <v>45191</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E82" s="10"/>
-      <c r="F82" s="8" t="s">
-        <v>99</v>
-      </c>
+      <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c r="H82" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
       <c r="K82" s="8"/>
       <c r="L82" s="8"/>
       <c r="M82" s="8"/>
@@ -4115,28 +4137,22 @@
       <c r="Z82" s="8"/>
     </row>
     <row r="83" spans="1:26">
-      <c r="A83" s="8">
-        <v>82</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C83" s="9">
-        <v>45169</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E83" s="10"/>
-      <c r="F83" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G83" s="10"/>
-      <c r="H83" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
+      <c r="A83" s="10">
+        <v>81</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="13">
+        <v>45192</v>
+      </c>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
       <c r="K83" s="8"/>
       <c r="L83" s="8"/>
       <c r="M83" s="8"/>
@@ -4155,28 +4171,22 @@
       <c r="Z83" s="8"/>
     </row>
     <row r="84" spans="1:26" s="14" customFormat="1">
-      <c r="A84" s="10">
-        <v>83</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" s="11">
-        <v>45170</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E84" s="10"/>
-      <c r="F84" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I84" s="10"/>
-      <c r="J84" s="10"/>
+      <c r="A84" s="8">
+        <v>82</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="13">
+        <v>45193</v>
+      </c>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
       <c r="K84" s="10"/>
       <c r="L84" s="10"/>
       <c r="M84" s="10"/>
@@ -4195,22 +4205,26 @@
       <c r="Z84" s="10"/>
     </row>
     <row r="85" spans="1:26" s="6" customFormat="1">
-      <c r="A85" s="12">
-        <v>84</v>
-      </c>
-      <c r="B85" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" s="13">
-        <v>45171</v>
-      </c>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="12"/>
-      <c r="I85" s="12"/>
-      <c r="J85" s="12"/>
+      <c r="A85" s="8">
+        <v>83</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" s="9">
+        <v>45194</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E85" s="10"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
       <c r="K85" s="12"/>
       <c r="L85" s="16"/>
       <c r="M85" s="12"/>
@@ -4229,22 +4243,26 @@
       <c r="Z85" s="12"/>
     </row>
     <row r="86" spans="1:26">
-      <c r="A86" s="12">
-        <v>85</v>
-      </c>
-      <c r="B86" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C86" s="13">
-        <v>45172</v>
-      </c>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
-      <c r="J86" s="12"/>
+      <c r="A86" s="10">
+        <v>84</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="9">
+        <v>45195</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
       <c r="K86" s="12"/>
       <c r="L86" s="8"/>
       <c r="M86" s="12"/>
@@ -4264,24 +4282,22 @@
     </row>
     <row r="87" spans="1:26">
       <c r="A87" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C87" s="9">
-        <v>45173</v>
+        <v>45196</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E87" s="10"/>
-      <c r="F87" s="8" t="s">
-        <v>99</v>
-      </c>
+      <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c r="H87" s="8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
@@ -4304,24 +4320,22 @@
     </row>
     <row r="88" spans="1:26">
       <c r="A88" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C88" s="9">
-        <v>45174</v>
+        <v>45197</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E88" s="10"/>
-      <c r="F88" s="8" t="s">
-        <v>100</v>
-      </c>
+      <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c r="H88" s="8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
@@ -4343,26 +4357,26 @@
       <c r="Z88" s="8"/>
     </row>
     <row r="89" spans="1:26">
-      <c r="A89" s="8">
-        <v>88</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C89" s="9">
-        <v>45175</v>
+      <c r="A89" s="10">
+        <v>87</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="11">
+        <v>45198</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E89" s="10"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c r="H89" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
       <c r="K89" s="8"/>
       <c r="L89" s="8"/>
       <c r="M89" s="8"/>
@@ -4382,25 +4396,21 @@
     </row>
     <row r="90" spans="1:26">
       <c r="A90" s="8">
-        <v>89</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C90" s="9">
-        <v>45176</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
+        <v>88</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="13">
+        <v>45199</v>
+      </c>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="12"/>
       <c r="K90" s="8"/>
       <c r="L90" s="8"/>
       <c r="M90" s="8"/>
@@ -4419,26 +4429,22 @@
       <c r="Z90" s="8"/>
     </row>
     <row r="91" spans="1:26" s="14" customFormat="1">
-      <c r="A91" s="10">
-        <v>90</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" s="11">
-        <v>45177</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E91" s="10"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I91" s="10"/>
-      <c r="J91" s="10"/>
+      <c r="A91" s="8">
+        <v>89</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="13">
+        <v>45200</v>
+      </c>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="12"/>
       <c r="K91" s="10"/>
       <c r="L91" s="10"/>
       <c r="M91" s="10"/>
@@ -4457,22 +4463,26 @@
       <c r="Z91" s="10"/>
     </row>
     <row r="92" spans="1:26" s="6" customFormat="1">
-      <c r="A92" s="12">
-        <v>91</v>
-      </c>
-      <c r="B92" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C92" s="13">
-        <v>45178</v>
-      </c>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="12"/>
+      <c r="A92" s="10">
+        <v>90</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" s="9">
+        <v>45201</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E92" s="10"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
       <c r="K92" s="12"/>
       <c r="L92" s="16"/>
       <c r="M92" s="12"/>
@@ -4491,22 +4501,26 @@
       <c r="Z92" s="12"/>
     </row>
     <row r="93" spans="1:26">
-      <c r="A93" s="12">
-        <v>92</v>
-      </c>
-      <c r="B93" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C93" s="13">
-        <v>45179</v>
-      </c>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
-      <c r="J93" s="12"/>
+      <c r="A93" s="8">
+        <v>91</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" s="9">
+        <v>45202</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
       <c r="K93" s="12"/>
       <c r="L93" s="8"/>
       <c r="M93" s="12"/>
@@ -4526,16 +4540,16 @@
     </row>
     <row r="94" spans="1:26">
       <c r="A94" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C94" s="9">
-        <v>45180</v>
+        <v>45203</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E94" s="10"/>
       <c r="F94" s="8"/>
@@ -4563,17 +4577,17 @@
       <c r="Z94" s="8"/>
     </row>
     <row r="95" spans="1:26">
-      <c r="A95" s="8">
-        <v>94</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C95" s="9">
-        <v>45181</v>
+      <c r="A95" s="10">
+        <v>93</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" s="11">
+        <v>45204</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E95" s="10"/>
       <c r="F95" s="8"/>
@@ -4602,16 +4616,16 @@
     </row>
     <row r="96" spans="1:26">
       <c r="A96" s="8">
-        <v>95</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C96" s="9">
-        <v>45182</v>
+        <v>94</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="11">
+        <v>45205</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E96" s="10"/>
       <c r="F96" s="8"/>
@@ -4619,8 +4633,8 @@
       <c r="H96" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I96" s="8"/>
-      <c r="J96" s="8"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="10"/>
       <c r="K96" s="8"/>
       <c r="L96" s="8"/>
       <c r="M96" s="8"/>
@@ -4640,25 +4654,21 @@
     </row>
     <row r="97" spans="1:26">
       <c r="A97" s="8">
-        <v>96</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C97" s="9">
-        <v>45183</v>
-      </c>
-      <c r="D97" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8"/>
+        <v>95</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="13">
+        <v>45206</v>
+      </c>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
       <c r="K97" s="8"/>
       <c r="L97" s="8"/>
       <c r="M97" s="8"/>
@@ -4678,25 +4688,21 @@
     </row>
     <row r="98" spans="1:26" s="14" customFormat="1">
       <c r="A98" s="10">
-        <v>97</v>
-      </c>
-      <c r="B98" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C98" s="11">
-        <v>45184</v>
-      </c>
-      <c r="D98" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E98" s="10"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I98" s="10"/>
-      <c r="J98" s="10"/>
+        <v>96</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="13">
+        <v>45207</v>
+      </c>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="12"/>
       <c r="K98" s="10"/>
       <c r="L98" s="10"/>
       <c r="M98" s="10"/>
@@ -4715,22 +4721,26 @@
       <c r="Z98" s="10"/>
     </row>
     <row r="99" spans="1:26" s="6" customFormat="1">
-      <c r="A99" s="12">
-        <v>98</v>
-      </c>
-      <c r="B99" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" s="13">
-        <v>45185</v>
-      </c>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="12"/>
-      <c r="I99" s="12"/>
-      <c r="J99" s="12"/>
+      <c r="A99" s="8">
+        <v>97</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" s="9">
+        <v>45208</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E99" s="10"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
       <c r="K99" s="12"/>
       <c r="L99" s="16"/>
       <c r="M99" s="12"/>
@@ -4749,22 +4759,26 @@
       <c r="Z99" s="12"/>
     </row>
     <row r="100" spans="1:26">
-      <c r="A100" s="12">
-        <v>99</v>
-      </c>
-      <c r="B100" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C100" s="13">
-        <v>45186</v>
-      </c>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="12"/>
-      <c r="G100" s="12"/>
-      <c r="H100" s="12"/>
-      <c r="I100" s="12"/>
-      <c r="J100" s="12"/>
+      <c r="A100" s="8">
+        <v>98</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100" s="9">
+        <v>45209</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
       <c r="K100" s="12"/>
       <c r="L100" s="8"/>
       <c r="M100" s="12"/>
@@ -4783,23 +4797,23 @@
       <c r="Z100" s="12"/>
     </row>
     <row r="101" spans="1:26">
-      <c r="A101" s="8">
-        <v>100</v>
+      <c r="A101" s="10">
+        <v>99</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C101" s="9">
-        <v>45187</v>
+        <v>45210</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E101" s="10"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c r="H101" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
@@ -4822,22 +4836,22 @@
     </row>
     <row r="102" spans="1:26">
       <c r="A102" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C102" s="9">
-        <v>45188</v>
+        <v>45211</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E102" s="10"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c r="H102" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
@@ -4860,25 +4874,25 @@
     </row>
     <row r="103" spans="1:26">
       <c r="A103" s="8">
-        <v>102</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C103" s="9">
-        <v>45189</v>
+        <v>101</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" s="11">
+        <v>45212</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E103" s="10"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c r="H103" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I103" s="8"/>
-      <c r="J103" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="I103" s="10"/>
+      <c r="J103" s="10"/>
       <c r="K103" s="8"/>
       <c r="L103" s="8"/>
       <c r="M103" s="8"/>
@@ -4897,26 +4911,22 @@
       <c r="Z103" s="8"/>
     </row>
     <row r="104" spans="1:26">
-      <c r="A104" s="8">
-        <v>103</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C104" s="9">
-        <v>45190</v>
-      </c>
-      <c r="D104" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
-      <c r="G104" s="10"/>
-      <c r="H104" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I104" s="8"/>
-      <c r="J104" s="8"/>
+      <c r="A104" s="10">
+        <v>102</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="13">
+        <v>45213</v>
+      </c>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="12"/>
       <c r="K104" s="8"/>
       <c r="L104" s="8"/>
       <c r="M104" s="8"/>
@@ -4935,26 +4945,22 @@
       <c r="Z104" s="8"/>
     </row>
     <row r="105" spans="1:26" s="14" customFormat="1">
-      <c r="A105" s="10">
-        <v>104</v>
-      </c>
-      <c r="B105" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105" s="11">
-        <v>45191</v>
-      </c>
-      <c r="D105" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E105" s="10"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I105" s="10"/>
-      <c r="J105" s="10"/>
+      <c r="A105" s="8">
+        <v>103</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="13">
+        <v>45214</v>
+      </c>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="12"/>
       <c r="K105" s="10"/>
       <c r="L105" s="10"/>
       <c r="M105" s="10"/>
@@ -4973,22 +4979,26 @@
       <c r="Z105" s="10"/>
     </row>
     <row r="106" spans="1:26" s="6" customFormat="1">
-      <c r="A106" s="12">
-        <v>105</v>
-      </c>
-      <c r="B106" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106" s="13">
-        <v>45192</v>
-      </c>
-      <c r="D106" s="12"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="12"/>
-      <c r="G106" s="12"/>
-      <c r="H106" s="12"/>
-      <c r="I106" s="12"/>
-      <c r="J106" s="12"/>
+      <c r="A106" s="8">
+        <v>104</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" s="9">
+        <v>45215</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E106" s="10"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I106" s="8"/>
+      <c r="J106" s="8"/>
       <c r="K106" s="12"/>
       <c r="L106" s="16"/>
       <c r="M106" s="12"/>
@@ -5007,22 +5017,26 @@
       <c r="Z106" s="12"/>
     </row>
     <row r="107" spans="1:26">
-      <c r="A107" s="12">
-        <v>106</v>
-      </c>
-      <c r="B107" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C107" s="13">
-        <v>45193</v>
-      </c>
-      <c r="D107" s="12"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="12"/>
-      <c r="G107" s="12"/>
-      <c r="H107" s="12"/>
-      <c r="I107" s="12"/>
-      <c r="J107" s="12"/>
+      <c r="A107" s="10">
+        <v>105</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107" s="9">
+        <v>45216</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I107" s="10"/>
+      <c r="J107" s="10"/>
       <c r="K107" s="12"/>
       <c r="L107" s="8"/>
       <c r="M107" s="12"/>
@@ -5042,25 +5056,25 @@
     </row>
     <row r="108" spans="1:26">
       <c r="A108" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C108" s="9">
-        <v>45194</v>
+        <v>45217</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E108" s="10"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c r="H108" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I108" s="8"/>
-      <c r="J108" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="I108" s="10"/>
+      <c r="J108" s="10"/>
       <c r="K108" s="8"/>
       <c r="L108" s="8"/>
       <c r="M108" s="8"/>
@@ -5080,25 +5094,25 @@
     </row>
     <row r="109" spans="1:26">
       <c r="A109" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C109" s="9">
-        <v>45195</v>
+        <v>45218</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E109" s="10"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c r="H109" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I109" s="8"/>
-      <c r="J109" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="I109" s="10"/>
+      <c r="J109" s="10"/>
       <c r="K109" s="8"/>
       <c r="L109" s="8"/>
       <c r="M109" s="8"/>
@@ -5117,26 +5131,26 @@
       <c r="Z109" s="8"/>
     </row>
     <row r="110" spans="1:26">
-      <c r="A110" s="8">
-        <v>109</v>
+      <c r="A110" s="10">
+        <v>108</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C110" s="9">
-        <v>45196</v>
+        <v>7</v>
+      </c>
+      <c r="C110" s="11">
+        <v>45219</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E110" s="10"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c r="H110" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I110" s="8"/>
-      <c r="J110" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="I110" s="10"/>
+      <c r="J110" s="10"/>
       <c r="K110" s="8"/>
       <c r="L110" s="8"/>
       <c r="M110" s="8"/>
@@ -5156,25 +5170,21 @@
     </row>
     <row r="111" spans="1:26">
       <c r="A111" s="8">
-        <v>110</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C111" s="9">
-        <v>45197</v>
-      </c>
-      <c r="D111" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10"/>
-      <c r="G111" s="10"/>
-      <c r="H111" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I111" s="8"/>
-      <c r="J111" s="8"/>
+        <v>109</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="13">
+        <v>45220</v>
+      </c>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12"/>
+      <c r="J111" s="12"/>
       <c r="K111" s="8"/>
       <c r="L111" s="8"/>
       <c r="M111" s="8"/>
@@ -5193,26 +5203,22 @@
       <c r="Z111" s="8"/>
     </row>
     <row r="112" spans="1:26" s="14" customFormat="1">
-      <c r="A112" s="10">
-        <v>111</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C112" s="11">
-        <v>45198</v>
-      </c>
-      <c r="D112" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E112" s="10"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I112" s="10"/>
-      <c r="J112" s="10"/>
+      <c r="A112" s="8">
+        <v>110</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="13">
+        <v>45221</v>
+      </c>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
+      <c r="J112" s="12"/>
       <c r="K112" s="10"/>
       <c r="L112" s="10"/>
       <c r="M112" s="10"/>
@@ -5231,22 +5237,26 @@
       <c r="Z112" s="10"/>
     </row>
     <row r="113" spans="1:26" s="6" customFormat="1">
-      <c r="A113" s="12">
-        <v>112</v>
-      </c>
-      <c r="B113" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C113" s="13">
-        <v>45199</v>
-      </c>
-      <c r="D113" s="12"/>
-      <c r="E113" s="12"/>
-      <c r="F113" s="12"/>
-      <c r="G113" s="12"/>
-      <c r="H113" s="12"/>
-      <c r="I113" s="12"/>
-      <c r="J113" s="12"/>
+      <c r="A113" s="10">
+        <v>111</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" s="11">
+        <v>45222</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E113" s="10"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I113" s="10"/>
+      <c r="J113" s="10"/>
       <c r="K113" s="12"/>
       <c r="L113" s="16"/>
       <c r="M113" s="12"/>
@@ -5265,22 +5275,26 @@
       <c r="Z113" s="12"/>
     </row>
     <row r="114" spans="1:26">
-      <c r="A114" s="12">
-        <v>113</v>
-      </c>
-      <c r="B114" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C114" s="13">
-        <v>45200</v>
-      </c>
-      <c r="D114" s="12"/>
-      <c r="E114" s="12"/>
-      <c r="F114" s="12"/>
-      <c r="G114" s="12"/>
-      <c r="H114" s="12"/>
-      <c r="I114" s="12"/>
-      <c r="J114" s="12"/>
+      <c r="A114" s="8">
+        <v>112</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114" s="9">
+        <v>45223</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I114" s="10"/>
+      <c r="J114" s="10"/>
       <c r="K114" s="12"/>
       <c r="L114" s="8"/>
       <c r="M114" s="12"/>
@@ -5300,25 +5314,25 @@
     </row>
     <row r="115" spans="1:26">
       <c r="A115" s="8">
-        <v>114</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C115" s="9">
-        <v>45201</v>
+        <v>113</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" s="11">
+        <v>45224</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E115" s="10"/>
+        <v>73</v>
+      </c>
+      <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c r="H115" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I115" s="8"/>
-      <c r="J115" s="8"/>
+        <v>55</v>
+      </c>
+      <c r="I115" s="10"/>
+      <c r="J115" s="10"/>
       <c r="K115" s="8"/>
       <c r="L115" s="8"/>
       <c r="M115" s="8"/>
@@ -5337,26 +5351,26 @@
       <c r="Z115" s="8"/>
     </row>
     <row r="116" spans="1:26">
-      <c r="A116" s="8">
-        <v>115</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C116" s="9">
-        <v>45202</v>
+      <c r="A116" s="10">
+        <v>114</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116" s="11">
+        <v>45225</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E116" s="10"/>
+        <v>73</v>
+      </c>
+      <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c r="H116" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I116" s="8"/>
-      <c r="J116" s="8"/>
+        <v>55</v>
+      </c>
+      <c r="I116" s="10"/>
+      <c r="J116" s="10"/>
       <c r="K116" s="8"/>
       <c r="L116" s="8"/>
       <c r="M116" s="8"/>
@@ -5376,25 +5390,25 @@
     </row>
     <row r="117" spans="1:26">
       <c r="A117" s="8">
-        <v>116</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C117" s="9">
-        <v>45203</v>
+        <v>115</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" s="11">
+        <v>45226</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E117" s="10"/>
+        <v>73</v>
+      </c>
+      <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c r="H117" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I117" s="8"/>
-      <c r="J117" s="8"/>
+        <v>55</v>
+      </c>
+      <c r="I117" s="10"/>
+      <c r="J117" s="10"/>
       <c r="K117" s="8"/>
       <c r="L117" s="8"/>
       <c r="M117" s="8"/>
@@ -5414,25 +5428,21 @@
     </row>
     <row r="118" spans="1:26">
       <c r="A118" s="8">
-        <v>117</v>
-      </c>
-      <c r="B118" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C118" s="11">
-        <v>45204</v>
-      </c>
-      <c r="D118" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E118" s="10"/>
-      <c r="F118" s="10"/>
-      <c r="G118" s="10"/>
-      <c r="H118" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I118" s="8"/>
-      <c r="J118" s="8"/>
+        <v>116</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="13">
+        <v>45227</v>
+      </c>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="12"/>
+      <c r="J118" s="12"/>
       <c r="K118" s="8"/>
       <c r="L118" s="8"/>
       <c r="M118" s="8"/>
@@ -5452,25 +5462,21 @@
     </row>
     <row r="119" spans="1:26" s="14" customFormat="1">
       <c r="A119" s="10">
-        <v>118</v>
-      </c>
-      <c r="B119" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C119" s="11">
-        <v>45205</v>
-      </c>
-      <c r="D119" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E119" s="10"/>
-      <c r="F119" s="8"/>
-      <c r="G119" s="8"/>
-      <c r="H119" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I119" s="10"/>
-      <c r="J119" s="10"/>
+        <v>117</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" s="13">
+        <v>45228</v>
+      </c>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="12"/>
+      <c r="J119" s="12"/>
       <c r="K119" s="10"/>
       <c r="L119" s="10"/>
       <c r="M119" s="10"/>
@@ -5489,22 +5495,26 @@
       <c r="Z119" s="10"/>
     </row>
     <row r="120" spans="1:26" s="6" customFormat="1">
-      <c r="A120" s="12">
-        <v>119</v>
-      </c>
-      <c r="B120" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C120" s="13">
-        <v>45206</v>
-      </c>
-      <c r="D120" s="12"/>
-      <c r="E120" s="12"/>
-      <c r="F120" s="12"/>
-      <c r="G120" s="12"/>
-      <c r="H120" s="12"/>
-      <c r="I120" s="12"/>
-      <c r="J120" s="12"/>
+      <c r="A120" s="8">
+        <v>118</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" s="11">
+        <v>45229</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I120" s="10"/>
+      <c r="J120" s="10"/>
       <c r="K120" s="12"/>
       <c r="L120" s="16"/>
       <c r="M120" s="12"/>
@@ -5523,22 +5533,26 @@
       <c r="Z120" s="12"/>
     </row>
     <row r="121" spans="1:26">
-      <c r="A121" s="12">
-        <v>120</v>
-      </c>
-      <c r="B121" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C121" s="13">
-        <v>45207</v>
-      </c>
-      <c r="D121" s="12"/>
-      <c r="E121" s="12"/>
-      <c r="F121" s="12"/>
-      <c r="G121" s="12"/>
-      <c r="H121" s="12"/>
-      <c r="I121" s="12"/>
-      <c r="J121" s="12"/>
+      <c r="A121" s="8">
+        <v>119</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121" s="11">
+        <v>45230</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I121" s="10"/>
+      <c r="J121" s="10"/>
       <c r="K121" s="12"/>
       <c r="L121" s="8"/>
       <c r="M121" s="12"/>
@@ -5557,26 +5571,26 @@
       <c r="Z121" s="12"/>
     </row>
     <row r="122" spans="1:26">
-      <c r="A122" s="8">
-        <v>121</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C122" s="9">
-        <v>45208</v>
+      <c r="A122" s="10">
+        <v>120</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" s="11">
+        <v>45231</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E122" s="10"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="8"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
       <c r="H122" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I122" s="8"/>
-      <c r="J122" s="8"/>
+        <v>55</v>
+      </c>
+      <c r="I122" s="10"/>
+      <c r="J122" s="10"/>
       <c r="K122" s="8"/>
       <c r="L122" s="8"/>
       <c r="M122" s="8"/>
@@ -5596,25 +5610,23 @@
     </row>
     <row r="123" spans="1:26">
       <c r="A123" s="8">
-        <v>122</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C123" s="9">
-        <v>45209</v>
+        <v>121</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" s="11">
+        <v>45232</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E123" s="10"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="8"/>
-      <c r="H123" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I123" s="8"/>
-      <c r="J123" s="8"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="10"/>
+      <c r="I123" s="10"/>
+      <c r="J123" s="10"/>
       <c r="K123" s="8"/>
       <c r="L123" s="8"/>
       <c r="M123" s="8"/>
@@ -5633,26 +5645,24 @@
       <c r="Z123" s="8"/>
     </row>
     <row r="124" spans="1:26">
-      <c r="A124" s="10">
-        <v>123</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C124" s="9">
-        <v>45210</v>
+      <c r="A124" s="8">
+        <v>122</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" s="11">
+        <v>45233</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E124" s="10"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I124" s="8"/>
-      <c r="J124" s="8"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="10"/>
+      <c r="I124" s="10"/>
+      <c r="J124" s="10"/>
       <c r="K124" s="8"/>
       <c r="L124" s="8"/>
       <c r="M124" s="8"/>
@@ -5671,26 +5681,22 @@
       <c r="Z124" s="8"/>
     </row>
     <row r="125" spans="1:26">
-      <c r="A125" s="8">
-        <v>124</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C125" s="9">
-        <v>45211</v>
-      </c>
-      <c r="D125" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10"/>
-      <c r="G125" s="10"/>
-      <c r="H125" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I125" s="8"/>
-      <c r="J125" s="8"/>
+      <c r="A125" s="10">
+        <v>123</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="13">
+        <v>45234</v>
+      </c>
+      <c r="D125" s="17"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
+      <c r="J125" s="12"/>
       <c r="K125" s="8"/>
       <c r="L125" s="8"/>
       <c r="M125" s="8"/>
@@ -5709,26 +5715,22 @@
       <c r="Z125" s="8"/>
     </row>
     <row r="126" spans="1:26" s="14" customFormat="1">
-      <c r="A126" s="10">
-        <v>125</v>
-      </c>
-      <c r="B126" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C126" s="11">
-        <v>45212</v>
-      </c>
-      <c r="D126" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E126" s="8"/>
-      <c r="F126" s="8"/>
-      <c r="G126" s="8"/>
-      <c r="H126" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I126" s="10"/>
-      <c r="J126" s="10"/>
+      <c r="A126" s="8">
+        <v>124</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" s="13">
+        <v>45235</v>
+      </c>
+      <c r="D126" s="17"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="17"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="12"/>
+      <c r="J126" s="12"/>
       <c r="K126" s="10"/>
       <c r="L126" s="10"/>
       <c r="M126" s="10"/>
@@ -5747,22 +5749,24 @@
       <c r="Z126" s="10"/>
     </row>
     <row r="127" spans="1:26" s="6" customFormat="1">
-      <c r="A127" s="12">
-        <v>126</v>
-      </c>
-      <c r="B127" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" s="13">
-        <v>45213</v>
-      </c>
-      <c r="D127" s="12"/>
-      <c r="E127" s="12"/>
-      <c r="F127" s="12"/>
-      <c r="G127" s="12"/>
-      <c r="H127" s="12"/>
-      <c r="I127" s="12"/>
-      <c r="J127" s="12"/>
+      <c r="A127" s="8">
+        <v>125</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" s="11">
+        <v>45236</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="10"/>
+      <c r="I127" s="10"/>
+      <c r="J127" s="10"/>
       <c r="K127" s="12"/>
       <c r="L127" s="16"/>
       <c r="M127" s="12"/>
@@ -5781,22 +5785,24 @@
       <c r="Z127" s="12"/>
     </row>
     <row r="128" spans="1:26" s="6" customFormat="1">
-      <c r="A128" s="12">
-        <v>127</v>
-      </c>
-      <c r="B128" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C128" s="13">
-        <v>45214</v>
-      </c>
-      <c r="D128" s="12"/>
-      <c r="E128" s="12"/>
-      <c r="F128" s="12"/>
-      <c r="G128" s="12"/>
-      <c r="H128" s="12"/>
-      <c r="I128" s="12"/>
-      <c r="J128" s="12"/>
+      <c r="A128" s="10">
+        <v>126</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128" s="11">
+        <v>45237</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="10"/>
+      <c r="I128" s="10"/>
+      <c r="J128" s="10"/>
       <c r="K128" s="12"/>
       <c r="L128" s="16"/>
       <c r="M128" s="12"/>
@@ -5816,25 +5822,23 @@
     </row>
     <row r="129" spans="1:26">
       <c r="A129" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C129" s="9">
-        <v>45215</v>
+        <v>5</v>
+      </c>
+      <c r="C129" s="11">
+        <v>45238</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E129" s="8"/>
-      <c r="F129" s="8"/>
-      <c r="G129" s="8"/>
-      <c r="H129" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I129" s="8"/>
-      <c r="J129" s="8"/>
+        <v>73</v>
+      </c>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10"/>
+      <c r="H129" s="10"/>
+      <c r="I129" s="10"/>
+      <c r="J129" s="10"/>
       <c r="K129" s="8"/>
       <c r="L129" s="8"/>
       <c r="M129" s="8"/>
@@ -5854,23 +5858,21 @@
     </row>
     <row r="130" spans="1:26" s="14" customFormat="1">
       <c r="A130" s="8">
-        <v>129</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C130" s="9">
-        <v>45216</v>
+        <v>128</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130" s="11">
+        <v>45239</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E130" s="8"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="8"/>
-      <c r="H130" s="8" t="s">
-        <v>55</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E130" s="10"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10"/>
+      <c r="H130" s="10"/>
       <c r="I130" s="10"/>
       <c r="J130" s="10"/>
       <c r="K130" s="10"/>
@@ -5891,24 +5893,22 @@
       <c r="Z130" s="10"/>
     </row>
     <row r="131" spans="1:26" s="14" customFormat="1">
-      <c r="A131" s="8">
-        <v>130</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C131" s="9">
-        <v>45217</v>
+      <c r="A131" s="10">
+        <v>129</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" s="11">
+        <v>45240</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E131" s="8"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="8"/>
-      <c r="H131" s="8" t="s">
-        <v>55</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E131" s="10"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="10"/>
       <c r="I131" s="10"/>
       <c r="J131" s="10"/>
       <c r="K131" s="10"/>
@@ -5929,26 +5929,22 @@
       <c r="Z131" s="10"/>
     </row>
     <row r="132" spans="1:26" s="14" customFormat="1">
-      <c r="A132" s="10">
-        <v>131</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C132" s="9">
-        <v>45218</v>
-      </c>
-      <c r="D132" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E132" s="10"/>
-      <c r="F132" s="10"/>
-      <c r="G132" s="10"/>
-      <c r="H132" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I132" s="10"/>
-      <c r="J132" s="10"/>
+      <c r="A132" s="8">
+        <v>130</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="13">
+        <v>45241</v>
+      </c>
+      <c r="D132" s="17"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="17"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="12"/>
+      <c r="I132" s="12"/>
+      <c r="J132" s="12"/>
       <c r="K132" s="10"/>
       <c r="L132" s="10"/>
       <c r="M132" s="10"/>
@@ -5968,25 +5964,21 @@
     </row>
     <row r="133" spans="1:26" s="14" customFormat="1">
       <c r="A133" s="8">
-        <v>132</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C133" s="11">
-        <v>45219</v>
-      </c>
-      <c r="D133" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E133" s="10"/>
-      <c r="F133" s="10"/>
-      <c r="G133" s="10"/>
-      <c r="H133" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I133" s="10"/>
-      <c r="J133" s="10"/>
+        <v>131</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" s="13">
+        <v>45242</v>
+      </c>
+      <c r="D133" s="17"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="17"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="12"/>
+      <c r="J133" s="12"/>
       <c r="K133" s="10"/>
       <c r="L133" s="10"/>
       <c r="M133" s="10"/>
@@ -6005,22 +5997,6 @@
       <c r="Z133" s="10"/>
     </row>
     <row r="134" spans="1:26" s="6" customFormat="1">
-      <c r="A134" s="12">
-        <v>133</v>
-      </c>
-      <c r="B134" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C134" s="13">
-        <v>45220</v>
-      </c>
-      <c r="D134" s="12"/>
-      <c r="E134" s="12"/>
-      <c r="F134" s="12"/>
-      <c r="G134" s="12"/>
-      <c r="H134" s="12"/>
-      <c r="I134" s="12"/>
-      <c r="J134" s="12"/>
       <c r="K134" s="12"/>
       <c r="L134" s="16"/>
       <c r="M134" s="12"/>
@@ -6039,22 +6015,6 @@
       <c r="Z134" s="12"/>
     </row>
     <row r="135" spans="1:26" s="6" customFormat="1">
-      <c r="A135" s="12">
-        <v>134</v>
-      </c>
-      <c r="B135" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C135" s="13">
-        <v>45221</v>
-      </c>
-      <c r="D135" s="12"/>
-      <c r="E135" s="12"/>
-      <c r="F135" s="12"/>
-      <c r="G135" s="12"/>
-      <c r="H135" s="12"/>
-      <c r="I135" s="12"/>
-      <c r="J135" s="12"/>
       <c r="K135" s="12"/>
       <c r="L135" s="16"/>
       <c r="M135" s="12"/>
@@ -6073,24 +6033,6 @@
       <c r="Z135" s="12"/>
     </row>
     <row r="136" spans="1:26" s="14" customFormat="1">
-      <c r="A136" s="10">
-        <v>135</v>
-      </c>
-      <c r="B136" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C136" s="11">
-        <v>45222</v>
-      </c>
-      <c r="D136" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E136" s="10"/>
-      <c r="F136" s="10"/>
-      <c r="G136" s="10"/>
-      <c r="H136" s="10"/>
-      <c r="I136" s="10"/>
-      <c r="J136" s="10"/>
       <c r="K136" s="10"/>
       <c r="L136" s="10"/>
       <c r="M136" s="10"/>
@@ -6109,24 +6051,6 @@
       <c r="Z136" s="10"/>
     </row>
     <row r="137" spans="1:26" s="14" customFormat="1">
-      <c r="A137" s="10">
-        <v>136</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C137" s="9">
-        <v>45223</v>
-      </c>
-      <c r="D137" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E137" s="10"/>
-      <c r="F137" s="10"/>
-      <c r="G137" s="10"/>
-      <c r="H137" s="10"/>
-      <c r="I137" s="10"/>
-      <c r="J137" s="10"/>
       <c r="K137" s="10"/>
       <c r="L137" s="10"/>
       <c r="M137" s="10"/>
@@ -6145,24 +6069,6 @@
       <c r="Z137" s="10"/>
     </row>
     <row r="138" spans="1:26" s="14" customFormat="1">
-      <c r="A138" s="8">
-        <v>137</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C138" s="11">
-        <v>45224</v>
-      </c>
-      <c r="D138" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E138" s="10"/>
-      <c r="F138" s="10"/>
-      <c r="G138" s="10"/>
-      <c r="H138" s="10"/>
-      <c r="I138" s="10"/>
-      <c r="J138" s="10"/>
       <c r="K138" s="10"/>
       <c r="L138" s="10"/>
       <c r="M138" s="10"/>
@@ -6181,24 +6087,6 @@
       <c r="Z138" s="10"/>
     </row>
     <row r="139" spans="1:26" s="14" customFormat="1">
-      <c r="A139" s="10">
-        <v>138</v>
-      </c>
-      <c r="B139" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C139" s="11">
-        <v>45225</v>
-      </c>
-      <c r="D139" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E139" s="10"/>
-      <c r="F139" s="10"/>
-      <c r="G139" s="10"/>
-      <c r="H139" s="10"/>
-      <c r="I139" s="10"/>
-      <c r="J139" s="10"/>
       <c r="K139" s="10"/>
       <c r="L139" s="10"/>
       <c r="M139" s="10"/>
@@ -6217,24 +6105,6 @@
       <c r="Z139" s="10"/>
     </row>
     <row r="140" spans="1:26" s="14" customFormat="1">
-      <c r="A140" s="10">
-        <v>139</v>
-      </c>
-      <c r="B140" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C140" s="11">
-        <v>45226</v>
-      </c>
-      <c r="D140" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E140" s="10"/>
-      <c r="F140" s="10"/>
-      <c r="G140" s="10"/>
-      <c r="H140" s="10"/>
-      <c r="I140" s="10"/>
-      <c r="J140" s="10"/>
       <c r="K140" s="10"/>
       <c r="L140" s="10"/>
       <c r="M140" s="10"/>
@@ -6253,22 +6123,6 @@
       <c r="Z140" s="10"/>
     </row>
     <row r="141" spans="1:26" s="6" customFormat="1">
-      <c r="A141" s="12">
-        <v>140</v>
-      </c>
-      <c r="B141" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C141" s="13">
-        <v>45227</v>
-      </c>
-      <c r="D141" s="12"/>
-      <c r="E141" s="12"/>
-      <c r="F141" s="12"/>
-      <c r="G141" s="12"/>
-      <c r="H141" s="12"/>
-      <c r="I141" s="12"/>
-      <c r="J141" s="12"/>
       <c r="K141" s="12"/>
       <c r="L141" s="16"/>
       <c r="M141" s="12"/>
@@ -6287,22 +6141,6 @@
       <c r="Z141" s="12"/>
     </row>
     <row r="142" spans="1:26" s="6" customFormat="1">
-      <c r="A142" s="12">
-        <v>141</v>
-      </c>
-      <c r="B142" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C142" s="13">
-        <v>45228</v>
-      </c>
-      <c r="D142" s="12"/>
-      <c r="E142" s="12"/>
-      <c r="F142" s="12"/>
-      <c r="G142" s="12"/>
-      <c r="H142" s="12"/>
-      <c r="I142" s="12"/>
-      <c r="J142" s="12"/>
       <c r="K142" s="12"/>
       <c r="L142" s="16"/>
       <c r="M142" s="12"/>
@@ -6321,24 +6159,6 @@
       <c r="Z142" s="12"/>
     </row>
     <row r="143" spans="1:26" s="14" customFormat="1">
-      <c r="A143" s="8">
-        <v>142</v>
-      </c>
-      <c r="B143" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C143" s="11">
-        <v>45229</v>
-      </c>
-      <c r="D143" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E143" s="10"/>
-      <c r="F143" s="10"/>
-      <c r="G143" s="10"/>
-      <c r="H143" s="10"/>
-      <c r="I143" s="10"/>
-      <c r="J143" s="10"/>
       <c r="K143" s="10"/>
       <c r="L143" s="10"/>
       <c r="M143" s="10"/>
@@ -6357,24 +6177,6 @@
       <c r="Z143" s="10"/>
     </row>
     <row r="144" spans="1:26" s="14" customFormat="1">
-      <c r="A144" s="10">
-        <v>143</v>
-      </c>
-      <c r="B144" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C144" s="11">
-        <v>45230</v>
-      </c>
-      <c r="D144" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E144" s="10"/>
-      <c r="F144" s="10"/>
-      <c r="G144" s="10"/>
-      <c r="H144" s="10"/>
-      <c r="I144" s="10"/>
-      <c r="J144" s="10"/>
       <c r="K144" s="10"/>
       <c r="L144" s="10"/>
       <c r="M144" s="10"/>
@@ -6393,16 +6195,6 @@
       <c r="Z144" s="10"/>
     </row>
     <row r="145" spans="1:26" s="14" customFormat="1">
-      <c r="A145" s="10"/>
-      <c r="B145" s="10"/>
-      <c r="C145" s="10"/>
-      <c r="D145" s="10"/>
-      <c r="E145" s="10"/>
-      <c r="F145" s="10"/>
-      <c r="G145" s="10"/>
-      <c r="H145" s="10"/>
-      <c r="I145" s="10"/>
-      <c r="J145" s="10"/>
       <c r="K145" s="10"/>
       <c r="L145" s="10"/>
       <c r="M145" s="10"/>
@@ -6421,16 +6213,6 @@
       <c r="Z145" s="10"/>
     </row>
     <row r="146" spans="1:26" s="14" customFormat="1">
-      <c r="A146" s="10"/>
-      <c r="B146" s="10"/>
-      <c r="C146" s="10"/>
-      <c r="D146" s="10"/>
-      <c r="E146" s="10"/>
-      <c r="F146" s="10"/>
-      <c r="G146" s="10"/>
-      <c r="H146" s="10"/>
-      <c r="I146" s="10"/>
-      <c r="J146" s="10"/>
       <c r="K146" s="10"/>
       <c r="L146" s="10"/>
       <c r="M146" s="10"/>
@@ -6449,16 +6231,6 @@
       <c r="Z146" s="10"/>
     </row>
     <row r="147" spans="1:26" s="14" customFormat="1">
-      <c r="A147" s="10"/>
-      <c r="B147" s="10"/>
-      <c r="C147" s="10"/>
-      <c r="D147" s="10"/>
-      <c r="E147" s="10"/>
-      <c r="F147" s="10"/>
-      <c r="G147" s="10"/>
-      <c r="H147" s="10"/>
-      <c r="I147" s="10"/>
-      <c r="J147" s="10"/>
       <c r="K147" s="10"/>
       <c r="L147" s="10"/>
       <c r="M147" s="10"/>
@@ -6476,73 +6248,43 @@
       <c r="Y147" s="10"/>
       <c r="Z147" s="10"/>
     </row>
-    <row r="148" spans="1:26" s="14" customFormat="1">
-      <c r="A148" s="10"/>
-      <c r="B148" s="10"/>
-      <c r="C148" s="10"/>
-      <c r="D148" s="10"/>
-      <c r="E148" s="10"/>
-      <c r="F148" s="10"/>
-      <c r="G148" s="10"/>
-      <c r="H148" s="10"/>
-      <c r="I148" s="10"/>
-      <c r="J148" s="10"/>
-      <c r="K148" s="10"/>
-      <c r="L148" s="10"/>
-      <c r="M148" s="10"/>
-      <c r="N148" s="10"/>
-      <c r="O148" s="10"/>
-      <c r="P148" s="10"/>
-      <c r="Q148" s="10"/>
-      <c r="R148" s="10"/>
-      <c r="S148" s="10"/>
-      <c r="T148" s="10"/>
-      <c r="U148" s="10"/>
-      <c r="V148" s="10"/>
-      <c r="W148" s="10"/>
-      <c r="X148" s="10"/>
-      <c r="Y148" s="10"/>
-      <c r="Z148" s="10"/>
-    </row>
-    <row r="149" spans="1:26" s="14" customFormat="1">
-      <c r="A149" s="10"/>
-      <c r="B149" s="10"/>
-      <c r="C149" s="10"/>
-      <c r="D149" s="10"/>
-      <c r="E149" s="10"/>
-      <c r="F149" s="10"/>
-      <c r="G149" s="10"/>
-      <c r="H149" s="10"/>
-      <c r="I149" s="10"/>
-      <c r="J149" s="10"/>
-      <c r="K149" s="10"/>
-      <c r="L149" s="10"/>
-      <c r="M149" s="10"/>
-      <c r="N149" s="10"/>
-      <c r="O149" s="10"/>
-      <c r="P149" s="10"/>
-      <c r="Q149" s="10"/>
-      <c r="R149" s="10"/>
-      <c r="S149" s="10"/>
-      <c r="T149" s="10"/>
-      <c r="U149" s="10"/>
-      <c r="V149" s="10"/>
-      <c r="W149" s="10"/>
-      <c r="X149" s="10"/>
-      <c r="Y149" s="10"/>
-      <c r="Z149" s="10"/>
+    <row r="148" spans="1:26">
+      <c r="K148" s="12"/>
+      <c r="L148" s="12"/>
+      <c r="M148" s="12"/>
+      <c r="N148" s="12"/>
+      <c r="O148" s="12"/>
+      <c r="P148" s="12"/>
+      <c r="Q148" s="12"/>
+      <c r="R148" s="12"/>
+      <c r="S148" s="12"/>
+      <c r="T148" s="12"/>
+      <c r="U148" s="12"/>
+      <c r="V148" s="12"/>
+      <c r="W148" s="12"/>
+      <c r="X148" s="12"/>
+      <c r="Y148" s="12"/>
+      <c r="Z148" s="12"/>
+    </row>
+    <row r="149" spans="1:26">
+      <c r="K149" s="12"/>
+      <c r="L149" s="12"/>
+      <c r="M149" s="12"/>
+      <c r="N149" s="12"/>
+      <c r="O149" s="12"/>
+      <c r="P149" s="12"/>
+      <c r="Q149" s="12"/>
+      <c r="R149" s="12"/>
+      <c r="S149" s="12"/>
+      <c r="T149" s="12"/>
+      <c r="U149" s="12"/>
+      <c r="V149" s="12"/>
+      <c r="W149" s="12"/>
+      <c r="X149" s="12"/>
+      <c r="Y149" s="12"/>
+      <c r="Z149" s="12"/>
     </row>
     <row r="150" spans="1:26" s="14" customFormat="1">
-      <c r="A150" s="10"/>
-      <c r="B150" s="10"/>
-      <c r="C150" s="10"/>
-      <c r="D150" s="10"/>
-      <c r="E150" s="10"/>
-      <c r="F150" s="10"/>
-      <c r="G150" s="10"/>
-      <c r="H150" s="10"/>
-      <c r="I150" s="10"/>
-      <c r="J150" s="10"/>
       <c r="K150" s="10"/>
       <c r="L150" s="10"/>
       <c r="M150" s="10"/>
@@ -6561,16 +6303,6 @@
       <c r="Z150" s="10"/>
     </row>
     <row r="151" spans="1:26" s="14" customFormat="1">
-      <c r="A151" s="10"/>
-      <c r="B151" s="10"/>
-      <c r="C151" s="10"/>
-      <c r="D151" s="10"/>
-      <c r="E151" s="10"/>
-      <c r="F151" s="10"/>
-      <c r="G151" s="10"/>
-      <c r="H151" s="10"/>
-      <c r="I151" s="10"/>
-      <c r="J151" s="10"/>
       <c r="K151" s="10"/>
       <c r="L151" s="10"/>
       <c r="M151" s="10"/>
@@ -6589,16 +6321,6 @@
       <c r="Z151" s="10"/>
     </row>
     <row r="152" spans="1:26" s="14" customFormat="1">
-      <c r="A152" s="10"/>
-      <c r="B152" s="10"/>
-      <c r="C152" s="10"/>
-      <c r="D152" s="10"/>
-      <c r="E152" s="10"/>
-      <c r="F152" s="10"/>
-      <c r="G152" s="10"/>
-      <c r="H152" s="10"/>
-      <c r="I152" s="10"/>
-      <c r="J152" s="10"/>
       <c r="K152" s="10"/>
       <c r="L152" s="10"/>
       <c r="M152" s="10"/>
@@ -6617,16 +6339,6 @@
       <c r="Z152" s="10"/>
     </row>
     <row r="153" spans="1:26" s="14" customFormat="1">
-      <c r="A153" s="10"/>
-      <c r="B153" s="10"/>
-      <c r="C153" s="10"/>
-      <c r="D153" s="10"/>
-      <c r="E153" s="10"/>
-      <c r="F153" s="10"/>
-      <c r="G153" s="10"/>
-      <c r="H153" s="10"/>
-      <c r="I153" s="10"/>
-      <c r="J153" s="10"/>
       <c r="K153" s="10"/>
       <c r="L153" s="10"/>
       <c r="M153" s="10"/>
@@ -6645,16 +6357,6 @@
       <c r="Z153" s="10"/>
     </row>
     <row r="154" spans="1:26" s="14" customFormat="1">
-      <c r="A154" s="10"/>
-      <c r="B154" s="10"/>
-      <c r="C154" s="10"/>
-      <c r="D154" s="10"/>
-      <c r="E154" s="10"/>
-      <c r="F154" s="10"/>
-      <c r="G154" s="10"/>
-      <c r="H154" s="10"/>
-      <c r="I154" s="10"/>
-      <c r="J154" s="10"/>
       <c r="K154" s="10"/>
       <c r="L154" s="10"/>
       <c r="M154" s="10"/>
@@ -6672,61 +6374,41 @@
       <c r="Y154" s="10"/>
       <c r="Z154" s="10"/>
     </row>
-    <row r="155" spans="1:26" s="14" customFormat="1">
-      <c r="A155" s="10"/>
-      <c r="B155" s="10"/>
-      <c r="C155" s="10"/>
-      <c r="D155" s="10"/>
-      <c r="E155" s="10"/>
-      <c r="F155" s="10"/>
-      <c r="G155" s="10"/>
-      <c r="H155" s="10"/>
-      <c r="I155" s="10"/>
-      <c r="J155" s="10"/>
-      <c r="K155" s="10"/>
-      <c r="L155" s="10"/>
-      <c r="M155" s="10"/>
-      <c r="N155" s="10"/>
-      <c r="O155" s="10"/>
-      <c r="P155" s="10"/>
-      <c r="Q155" s="10"/>
-      <c r="R155" s="10"/>
-      <c r="S155" s="10"/>
-      <c r="T155" s="10"/>
-      <c r="U155" s="10"/>
-      <c r="V155" s="10"/>
-      <c r="W155" s="10"/>
-      <c r="X155" s="10"/>
-      <c r="Y155" s="10"/>
-      <c r="Z155" s="10"/>
-    </row>
-    <row r="156" spans="1:26" s="14" customFormat="1">
-      <c r="A156" s="10"/>
-      <c r="B156" s="10"/>
-      <c r="C156" s="10"/>
-      <c r="D156" s="10"/>
-      <c r="E156" s="10"/>
-      <c r="F156" s="10"/>
-      <c r="G156" s="10"/>
-      <c r="H156" s="10"/>
-      <c r="I156" s="10"/>
-      <c r="J156" s="10"/>
-      <c r="K156" s="10"/>
-      <c r="L156" s="10"/>
-      <c r="M156" s="10"/>
-      <c r="N156" s="10"/>
-      <c r="O156" s="10"/>
-      <c r="P156" s="10"/>
-      <c r="Q156" s="10"/>
-      <c r="R156" s="10"/>
-      <c r="S156" s="10"/>
-      <c r="T156" s="10"/>
-      <c r="U156" s="10"/>
-      <c r="V156" s="10"/>
-      <c r="W156" s="10"/>
-      <c r="X156" s="10"/>
-      <c r="Y156" s="10"/>
-      <c r="Z156" s="10"/>
+    <row r="155" spans="1:26">
+      <c r="K155" s="12"/>
+      <c r="L155" s="12"/>
+      <c r="M155" s="12"/>
+      <c r="N155" s="12"/>
+      <c r="O155" s="12"/>
+      <c r="P155" s="12"/>
+      <c r="Q155" s="12"/>
+      <c r="R155" s="12"/>
+      <c r="S155" s="12"/>
+      <c r="T155" s="12"/>
+      <c r="U155" s="12"/>
+      <c r="V155" s="12"/>
+      <c r="W155" s="12"/>
+      <c r="X155" s="12"/>
+      <c r="Y155" s="12"/>
+      <c r="Z155" s="12"/>
+    </row>
+    <row r="156" spans="1:26">
+      <c r="K156" s="12"/>
+      <c r="L156" s="12"/>
+      <c r="M156" s="12"/>
+      <c r="N156" s="12"/>
+      <c r="O156" s="12"/>
+      <c r="P156" s="12"/>
+      <c r="Q156" s="12"/>
+      <c r="R156" s="12"/>
+      <c r="S156" s="12"/>
+      <c r="T156" s="12"/>
+      <c r="U156" s="12"/>
+      <c r="V156" s="12"/>
+      <c r="W156" s="12"/>
+      <c r="X156" s="12"/>
+      <c r="Y156" s="12"/>
+      <c r="Z156" s="12"/>
     </row>
     <row r="157" spans="1:26" s="14" customFormat="1">
       <c r="A157" s="10"/>
